--- a/SRS/requirements.xlsx
+++ b/SRS/requirements.xlsx
@@ -1134,10 +1134,6 @@
     <t>На странице корзины выводятся товары, отобранные для заказа, ввод номера ваучера, общая сумма заказа с учетом скидок (для акций), рекомендуемые товары, перечень потенциальных акций на корзину целиком</t>
   </si>
   <si>
-    <t>Все точки самовывоза - есть склады. Существуют склады, не являющиеся
-точками самовывоза</t>
-  </si>
-  <si>
     <t>Нажатие на "Купить" для набора приводит к помещению в корзину сразу нескольких артикулов. Далее из корзины можно удалить любой товар из набора</t>
   </si>
   <si>
@@ -1145,6 +1141,9 @@
   </si>
   <si>
     <t>Интеграция с внутренними ИС ТехноНИКОЛЬ</t>
+  </si>
+  <si>
+    <t>Все точки самовывоза - есть склады. Существуют склады, не являющиеся точками самовывоза</t>
   </si>
 </sst>
 </file>
@@ -1530,8 +1529,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S766"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="D167" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N176" sqref="N176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>2</v>
@@ -3136,7 +3135,7 @@
         <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>31</v>
@@ -3196,7 +3195,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>31</v>
@@ -3256,7 +3255,7 @@
         <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>31</v>
@@ -3316,7 +3315,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>31</v>
@@ -3376,7 +3375,7 @@
         <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>31</v>
@@ -3436,7 +3435,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>31</v>
@@ -3496,7 +3495,7 @@
         <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>31</v>
@@ -3556,7 +3555,7 @@
         <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>31</v>
@@ -3616,7 +3615,7 @@
         <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>31</v>
@@ -3676,7 +3675,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>31</v>
@@ -7805,7 +7804,7 @@
         <v>12</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>2</v>
@@ -8665,7 +8664,7 @@
         <v>17</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>18</v>
@@ -8722,7 +8721,7 @@
         <v>17</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>18</v>
@@ -8779,7 +8778,7 @@
         <v>17</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>18</v>
@@ -8836,7 +8835,7 @@
         <v>17</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>18</v>
@@ -8893,7 +8892,7 @@
         <v>17</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>18</v>
@@ -8950,7 +8949,7 @@
         <v>17</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>18</v>
@@ -9007,7 +9006,7 @@
         <v>17</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>18</v>
@@ -9067,7 +9066,7 @@
         <v>17</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>18</v>
@@ -9127,7 +9126,7 @@
         <v>17</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>18</v>
@@ -9187,7 +9186,7 @@
         <v>17</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>18</v>
@@ -9247,7 +9246,7 @@
         <v>17</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>18</v>
@@ -9307,7 +9306,7 @@
         <v>17</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>18</v>
@@ -9367,7 +9366,7 @@
         <v>17</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>18</v>
@@ -9427,7 +9426,7 @@
         <v>17</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>18</v>
@@ -9487,7 +9486,7 @@
         <v>17</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>18</v>
@@ -9547,7 +9546,7 @@
         <v>17</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>18</v>
@@ -9607,7 +9606,7 @@
         <v>17</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>18</v>
@@ -9667,7 +9666,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>18</v>
@@ -9727,7 +9726,7 @@
         <v>17</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>18</v>
@@ -11864,7 +11863,7 @@
         <v>12</v>
       </c>
       <c r="N176" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>2</v>

--- a/SRS/requirements.xlsx
+++ b/SRS/requirements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$S$795</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1701,141 +1701,141 @@
     </xf>
   </cellXfs>
   <cellStyles count="135">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="134" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2136,38 +2136,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E176" workbookViewId="0">
-      <selection activeCell="P188" sqref="A1:S795"/>
+    <sheetView tabSelected="1" topLeftCell="G36" workbookViewId="0">
+      <selection activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="19.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="1.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.5" customWidth="1"/>
-    <col min="11" max="11" width="1.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="48.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="72.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1"/>
-    <col min="16" max="16" width="80.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" style="1"/>
-    <col min="19" max="19" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="19.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.42578125" customWidth="1"/>
+    <col min="11" max="11" width="1.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="48.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="72.42578125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="16" max="16" width="80.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="1"/>
+    <col min="19" max="19" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P1" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="28">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="42">
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28">
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28">
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="98">
+    <row r="20" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="28">
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="28">
+    <row r="23" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="28">
+    <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="42">
+    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="56">
+    <row r="27" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="28">
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="28">
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="28">
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="28">
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="56">
+    <row r="34" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="28">
+    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="28">
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="56">
+    <row r="40" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="42">
+    <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="28">
+    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="28">
+    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="28">
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="28">
+    <row r="48" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="28">
+    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="42">
+    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="28">
+    <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="28">
+    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="28">
+    <row r="55" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="28">
+    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="28">
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="28">
+    <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="28">
+    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="28">
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="28">
+    <row r="61" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="28">
+    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="28">
+    <row r="63" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="28">
+    <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="28">
+    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="28">
+    <row r="66" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="28">
+    <row r="67" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="42">
+    <row r="69" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="28">
+    <row r="70" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>16</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>16</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="28">
+    <row r="72" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>16</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>16</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>16</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>16</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>16</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="42">
+    <row r="83" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>16</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="28">
+    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>16</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="28">
+    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>16</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>16</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>16</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="28">
+    <row r="91" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="56">
+    <row r="92" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>16</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="182">
+    <row r="93" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>16</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="100.5" customHeight="1">
+    <row r="94" spans="1:19" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="37.5" customHeight="1">
+    <row r="95" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>16</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="37.5" customHeight="1">
+    <row r="96" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>16</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="37.5" customHeight="1">
+    <row r="97" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="37.5" customHeight="1">
+    <row r="98" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>16</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="37.5" customHeight="1">
+    <row r="99" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>16</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="28">
+    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>16</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="37.5" customHeight="1">
+    <row r="101" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>16</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="37.5" customHeight="1">
+    <row r="102" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>16</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="37.5" customHeight="1">
+    <row r="103" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>16</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="37.5" customHeight="1">
+    <row r="104" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>16</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="37.5" customHeight="1">
+    <row r="105" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>16</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="28">
+    <row r="106" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>16</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="28">
+    <row r="107" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>16</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="37.5" customHeight="1">
+    <row r="108" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>16</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="37.5" customHeight="1">
+    <row r="109" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>16</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="37.5" customHeight="1">
+    <row r="110" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>16</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="37.5" customHeight="1">
+    <row r="111" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>16</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="37.5" customHeight="1">
+    <row r="112" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>16</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="37.5" customHeight="1">
+    <row r="113" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>16</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="35.25" customHeight="1">
+    <row r="114" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>16</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="35.25" customHeight="1">
+    <row r="115" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>16</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="35.25" customHeight="1">
+    <row r="116" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>16</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="35.25" customHeight="1">
+    <row r="117" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>16</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="35.25" customHeight="1">
+    <row r="118" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>16</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="35.25" customHeight="1">
+    <row r="119" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>16</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>16</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="28">
+    <row r="121" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>16</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="28">
+    <row r="122" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>16</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="28">
+    <row r="123" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>16</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="42">
+    <row r="124" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>16</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="28">
+    <row r="125" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>16</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="28">
+    <row r="126" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>16</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>16</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="42">
+    <row r="129" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="42">
+    <row r="130" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>16</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="42">
+    <row r="131" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>16</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="182">
+    <row r="132" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>16</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="70">
+    <row r="133" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>16</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="28">
+    <row r="134" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>16</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="112">
+    <row r="135" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>16</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="28">
+    <row r="136" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>16</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="112">
+    <row r="137" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>16</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="84">
+    <row r="138" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>16</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="28">
+    <row r="139" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>16</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="28">
+    <row r="140" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>16</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="28">
+    <row r="141" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>16</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="28">
+    <row r="142" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>16</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>16</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>16</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="28">
+    <row r="145" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>16</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="28">
+    <row r="146" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>16</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>16</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>16</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="42">
+    <row r="149" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>16</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="42">
+    <row r="150" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>16</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>16</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>16</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>16</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="28">
+    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>16</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="28">
+    <row r="155" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>16</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="28">
+    <row r="156" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>16</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="56">
+    <row r="157" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>16</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="42">
+    <row r="158" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>16</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="84">
+    <row r="159" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>16</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="98">
+    <row r="160" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>16</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="28">
+    <row r="161" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>16</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="28">
+    <row r="162" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>16</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="42">
+    <row r="164" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="28">
+    <row r="165" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>16</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="42">
+    <row r="166" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>16</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="28">
+    <row r="167" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>16</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>16</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>16</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>16</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>16</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>16</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="28">
+    <row r="174" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>16</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="42">
+    <row r="175" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>16</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="28">
+    <row r="176" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>16</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="28">
+    <row r="177" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>16</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="42">
+    <row r="178" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>16</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="28">
+    <row r="179" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>16</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="56">
+    <row r="180" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>16</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="28">
+    <row r="181" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>16</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="42">
+    <row r="182" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>16</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="42">
+    <row r="183" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>16</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="70">
+    <row r="184" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>16</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="28">
+    <row r="185" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>16</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="28">
+    <row r="186" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>16</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="42">
+    <row r="187" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>16</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="42">
+    <row r="188" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>16</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="70">
+    <row r="189" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>16</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="56">
+    <row r="190" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>16</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>16</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>16</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>16</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>16</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="42">
+    <row r="195" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>16</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="28">
+    <row r="196" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>16</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="28">
+    <row r="197" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>16</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="28">
+    <row r="198" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>16</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="28">
+    <row r="199" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>16</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>16</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>16</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>16</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="28">
+    <row r="204" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>16</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="28">
+    <row r="205" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>16</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="28">
+    <row r="206" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>16</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="42">
+    <row r="207" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>16</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>16</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>16</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>16</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:19">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>16</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>16</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>16</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>16</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>16</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:19">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>16</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:19">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>16</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:19">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>16</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:19">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>16</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:19">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>16</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:19">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>16</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:19">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>16</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>16</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:19">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>16</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:19">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>16</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>16</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:19">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>16</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>16</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:19">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>16</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>16</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>16</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>16</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:19">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>16</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:19">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>16</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:19">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>16</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:19">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>16</v>
       </c>
@@ -15517,7 +15517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:19">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:19">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>16</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:19">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>16</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:19">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>16</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:19">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>16</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:19">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>16</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:19">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>16</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:19">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>16</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:19">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>16</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:19">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>16</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:19">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>16</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:19">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>16</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:19">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>16</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:19">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>16</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:19">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>16</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:19">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>16</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:19">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>16</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:19">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>16</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:19">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>16</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:19">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>16</v>
       </c>
@@ -16297,7 +16297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:19">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>16</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:19">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>16</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:19">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>16</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:19">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>16</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:19">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>16</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:19">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>16</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:19">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>16</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:19">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>16</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:19">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>16</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:19">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>16</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:19">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>16</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:19">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>16</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:19">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>16</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:19">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>16</v>
       </c>
@@ -16843,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:19">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>16</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:19">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>16</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:19">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>16</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:19">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>16</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:19">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>16</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:19">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>16</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:19">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>16</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:19">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>16</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:19">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>16</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:19">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>16</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:19">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>16</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:19">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>16</v>
       </c>
@@ -17311,7 +17311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:19">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>16</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:19">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>16</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:19">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>16</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:19">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>16</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:19">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>16</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:19">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>16</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:19">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>16</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:19">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>16</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:19">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>16</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:19">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>16</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:19">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>16</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:19">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>16</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:19">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>16</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:19">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>16</v>
       </c>
@@ -17857,7 +17857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:19">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>16</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:19">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>16</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:19">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>16</v>
       </c>
@@ -17974,7 +17974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:19">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>16</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:19">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>16</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:19">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>16</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:19">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>16</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:19">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>16</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:19">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>16</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:19">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>16</v>
       </c>
@@ -18247,7 +18247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:19">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>16</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:19">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>16</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:19">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>16</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:19">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>16</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:19">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>16</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:19">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>16</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:19">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>16</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:19">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>16</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:19">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>16</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:19">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>16</v>
       </c>
@@ -18637,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:19">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>16</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:19">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>16</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:19">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>16</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:19">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>16</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:19">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>16</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:19">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>16</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:19">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>16</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:19">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>16</v>
       </c>
@@ -18949,7 +18949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:19">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>16</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:19">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>16</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:19">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>16</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:19">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>16</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:19">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>16</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:19">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>16</v>
       </c>
@@ -19183,7 +19183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:19">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>16</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:19">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>16</v>
       </c>
@@ -19261,7 +19261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:19">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>16</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:19">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>16</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:19">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>16</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:19">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>16</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:19">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>16</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:19">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>16</v>
       </c>
@@ -19495,7 +19495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:19">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>16</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:19">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>16</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:19">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>16</v>
       </c>
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:19">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>16</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:19">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>16</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:19">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>16</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:19">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>16</v>
       </c>
@@ -19768,7 +19768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:19">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>16</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:19">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>16</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:19">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>16</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:19">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>16</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:19">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>16</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:19">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>16</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:19">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>16</v>
       </c>
@@ -20041,7 +20041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:19">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>16</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:19">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>16</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:19">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>16</v>
       </c>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:19">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>16</v>
       </c>
@@ -20197,7 +20197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:19">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>16</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:19">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>16</v>
       </c>
@@ -20275,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:19">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>16</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:19">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>16</v>
       </c>
@@ -20353,7 +20353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:19">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>16</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:19">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>16</v>
       </c>
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:19">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>16</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:19">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>16</v>
       </c>
@@ -20509,7 +20509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:19">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>16</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:19">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>16</v>
       </c>
@@ -20587,7 +20587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:19">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>16</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:19">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>16</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:19">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>16</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:19">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>16</v>
       </c>
@@ -20743,7 +20743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:19">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>16</v>
       </c>
@@ -20782,7 +20782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:19">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>16</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:19">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>16</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:19">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>16</v>
       </c>
@@ -20899,7 +20899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:19">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>16</v>
       </c>
@@ -20938,7 +20938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:19">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>16</v>
       </c>
@@ -20977,7 +20977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:19">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>16</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:19">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>16</v>
       </c>
@@ -21055,7 +21055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:19">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>16</v>
       </c>
@@ -21094,7 +21094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:19">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>16</v>
       </c>
@@ -21133,7 +21133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:19">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>16</v>
       </c>
@@ -21172,7 +21172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:19">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>16</v>
       </c>
@@ -21211,7 +21211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:19">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>16</v>
       </c>
@@ -21250,7 +21250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:19">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>16</v>
       </c>
@@ -21289,7 +21289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:19">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>16</v>
       </c>
@@ -21328,7 +21328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:19">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>16</v>
       </c>
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:19">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>16</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:19">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>16</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:19">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>16</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:19">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>16</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:19">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>16</v>
       </c>
@@ -21562,7 +21562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:19">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>16</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:19">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>16</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:19">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>16</v>
       </c>
@@ -21679,7 +21679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:19">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>16</v>
       </c>
@@ -21718,7 +21718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:19">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>16</v>
       </c>
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:19">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>16</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:19">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>16</v>
       </c>
@@ -21835,7 +21835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:19">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>16</v>
       </c>
@@ -21874,7 +21874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:19">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>16</v>
       </c>
@@ -21913,7 +21913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:19">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>16</v>
       </c>
@@ -21952,7 +21952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:19">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>16</v>
       </c>
@@ -21991,7 +21991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:19">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>16</v>
       </c>
@@ -22030,7 +22030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:19">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>16</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:19">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>16</v>
       </c>
@@ -22108,7 +22108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:19">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>16</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:19">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>16</v>
       </c>
@@ -22186,7 +22186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:19">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>16</v>
       </c>
@@ -22225,7 +22225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:19">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>16</v>
       </c>
@@ -22264,7 +22264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:19">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>16</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:19">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>16</v>
       </c>
@@ -22342,7 +22342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:19">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>16</v>
       </c>
@@ -22381,7 +22381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:19">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>16</v>
       </c>
@@ -22420,7 +22420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:19">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>16</v>
       </c>
@@ -22459,7 +22459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:19">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>16</v>
       </c>
@@ -22498,7 +22498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:19">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>16</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:19">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>16</v>
       </c>
@@ -22576,7 +22576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:19">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>16</v>
       </c>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:19">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>16</v>
       </c>
@@ -22654,7 +22654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:19">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>16</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:19">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>16</v>
       </c>
@@ -22732,7 +22732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:19">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>16</v>
       </c>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:19">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>16</v>
       </c>
@@ -22810,7 +22810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:19">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>16</v>
       </c>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:19">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>16</v>
       </c>
@@ -22888,7 +22888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:19">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>16</v>
       </c>
@@ -22927,7 +22927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:19">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>16</v>
       </c>
@@ -22966,7 +22966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:19">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>16</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:19">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>16</v>
       </c>
@@ -23044,7 +23044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:19">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>16</v>
       </c>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:19">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>16</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:19">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>16</v>
       </c>
@@ -23161,7 +23161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:19">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>16</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:19">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>16</v>
       </c>
@@ -23239,7 +23239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:19">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>16</v>
       </c>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:19">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>16</v>
       </c>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:19">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>16</v>
       </c>
@@ -23356,7 +23356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:19">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>16</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:19">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>16</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:19">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>16</v>
       </c>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:19">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>16</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:19">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>16</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:19">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>16</v>
       </c>
@@ -23590,7 +23590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:19">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>16</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:19">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>16</v>
       </c>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:19">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>16</v>
       </c>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:19">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>16</v>
       </c>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:19">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>16</v>
       </c>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:19">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>16</v>
       </c>
@@ -23824,7 +23824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:19">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>16</v>
       </c>
@@ -23863,7 +23863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:19">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>16</v>
       </c>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:19">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>16</v>
       </c>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:19">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>16</v>
       </c>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:19">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>16</v>
       </c>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:19">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>16</v>
       </c>
@@ -24058,7 +24058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:19">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>16</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:19">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>16</v>
       </c>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:19">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>16</v>
       </c>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:19">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>16</v>
       </c>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:19">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>16</v>
       </c>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:19">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>16</v>
       </c>
@@ -24292,7 +24292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:19">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>16</v>
       </c>
@@ -24331,7 +24331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:19">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>16</v>
       </c>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:19">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>16</v>
       </c>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:19">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>16</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:19">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>16</v>
       </c>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:19">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>16</v>
       </c>
@@ -24526,7 +24526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:19">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>16</v>
       </c>
@@ -24565,7 +24565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:19">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>16</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:19">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>16</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:19">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>16</v>
       </c>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:19">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>16</v>
       </c>
@@ -24721,7 +24721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:19">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>16</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:19">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>16</v>
       </c>
@@ -24799,7 +24799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:19">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>16</v>
       </c>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:19">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>16</v>
       </c>
@@ -24877,7 +24877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:19">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>16</v>
       </c>
@@ -24916,7 +24916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:19">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>16</v>
       </c>
@@ -24955,7 +24955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:19">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>16</v>
       </c>
@@ -24994,7 +24994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:19">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>16</v>
       </c>
@@ -25033,7 +25033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:19">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>16</v>
       </c>
@@ -25072,7 +25072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:19">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>16</v>
       </c>
@@ -25111,7 +25111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:19">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>16</v>
       </c>
@@ -25150,7 +25150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:19">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>16</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:19">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>16</v>
       </c>
@@ -25228,7 +25228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:19">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>16</v>
       </c>
@@ -25267,7 +25267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:19">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>16</v>
       </c>
@@ -25306,7 +25306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:19">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>16</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:19">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>16</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:19">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>16</v>
       </c>
@@ -25423,7 +25423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:19">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>16</v>
       </c>
@@ -25462,7 +25462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:19">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>16</v>
       </c>
@@ -25501,7 +25501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:19">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>16</v>
       </c>
@@ -25540,7 +25540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:19">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>16</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:19">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>16</v>
       </c>
@@ -25618,7 +25618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:19">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>16</v>
       </c>
@@ -25657,7 +25657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:19">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>16</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:19">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>16</v>
       </c>
@@ -25735,7 +25735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:19">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>16</v>
       </c>
@@ -25774,7 +25774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:19">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>16</v>
       </c>
@@ -25813,7 +25813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:19">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>16</v>
       </c>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:19">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>16</v>
       </c>
@@ -25891,7 +25891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:19">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>16</v>
       </c>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:19">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>16</v>
       </c>
@@ -25969,7 +25969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:19">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>16</v>
       </c>
@@ -26008,7 +26008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:19">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>16</v>
       </c>
@@ -26047,7 +26047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:19">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>16</v>
       </c>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:19">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>16</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:19">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>16</v>
       </c>
@@ -26164,7 +26164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:19">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>16</v>
       </c>
@@ -26203,7 +26203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:19">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>16</v>
       </c>
@@ -26242,7 +26242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:19">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>16</v>
       </c>
@@ -26281,7 +26281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:19">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>16</v>
       </c>
@@ -26320,7 +26320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:19">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>16</v>
       </c>
@@ -26359,7 +26359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:19">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>16</v>
       </c>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:19">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>16</v>
       </c>
@@ -26437,7 +26437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:19">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>16</v>
       </c>
@@ -26476,7 +26476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:19">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>16</v>
       </c>
@@ -26515,7 +26515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:19">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>16</v>
       </c>
@@ -26554,7 +26554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:19">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>16</v>
       </c>
@@ -26593,7 +26593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:19">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>16</v>
       </c>
@@ -26632,7 +26632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:19">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>16</v>
       </c>
@@ -26671,7 +26671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:19">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>16</v>
       </c>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:19">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>16</v>
       </c>
@@ -26749,7 +26749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:19">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>16</v>
       </c>
@@ -26788,7 +26788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:19">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>16</v>
       </c>
@@ -26827,7 +26827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:19">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>16</v>
       </c>
@@ -26866,7 +26866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:19">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>16</v>
       </c>
@@ -26905,7 +26905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:19">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>16</v>
       </c>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:19">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>16</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:19">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>16</v>
       </c>
@@ -27022,7 +27022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:19">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>16</v>
       </c>
@@ -27061,7 +27061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:19">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>16</v>
       </c>
@@ -27100,7 +27100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:19">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>16</v>
       </c>
@@ -27139,7 +27139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:19">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>16</v>
       </c>
@@ -27178,7 +27178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:19">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>16</v>
       </c>
@@ -27217,7 +27217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:19">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>16</v>
       </c>
@@ -27256,7 +27256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:19">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>16</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:19">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>16</v>
       </c>
@@ -27334,7 +27334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:19">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>16</v>
       </c>
@@ -27373,7 +27373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:19">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>16</v>
       </c>
@@ -27412,7 +27412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:19">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>16</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:19">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>16</v>
       </c>
@@ -27490,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:19">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>16</v>
       </c>
@@ -27529,7 +27529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:19">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>16</v>
       </c>
@@ -27568,7 +27568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:19">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>16</v>
       </c>
@@ -27607,7 +27607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:19">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>16</v>
       </c>
@@ -27646,7 +27646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:19">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>16</v>
       </c>
@@ -27685,7 +27685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:19">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>16</v>
       </c>
@@ -27724,7 +27724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:19">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>16</v>
       </c>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:19">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>16</v>
       </c>
@@ -27802,7 +27802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:19">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>16</v>
       </c>
@@ -27841,7 +27841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:19">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>16</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:19">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>16</v>
       </c>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:19">
+    <row r="555" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>16</v>
       </c>
@@ -27958,7 +27958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:19">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>16</v>
       </c>
@@ -27997,7 +27997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:19">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>16</v>
       </c>
@@ -28036,7 +28036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:19">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>16</v>
       </c>
@@ -28075,7 +28075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:19">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>16</v>
       </c>
@@ -28114,7 +28114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:19">
+    <row r="560" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>16</v>
       </c>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:19">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>16</v>
       </c>
@@ -28192,7 +28192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:19">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>16</v>
       </c>
@@ -28231,7 +28231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:19">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>16</v>
       </c>
@@ -28270,7 +28270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:19">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>16</v>
       </c>
@@ -28309,7 +28309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:19">
+    <row r="565" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>16</v>
       </c>
@@ -28348,7 +28348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:19">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>16</v>
       </c>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:19">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>16</v>
       </c>
@@ -28426,7 +28426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:19">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>16</v>
       </c>
@@ -28465,7 +28465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:19">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>16</v>
       </c>
@@ -28504,7 +28504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:19">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>16</v>
       </c>
@@ -28543,7 +28543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:19">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>16</v>
       </c>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:19">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>16</v>
       </c>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:19">
+    <row r="573" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>16</v>
       </c>
@@ -28660,7 +28660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:19">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>16</v>
       </c>
@@ -28699,7 +28699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:19">
+    <row r="575" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>16</v>
       </c>
@@ -28738,7 +28738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:19">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>16</v>
       </c>
@@ -28777,7 +28777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:19">
+    <row r="577" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>16</v>
       </c>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:19">
+    <row r="578" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>16</v>
       </c>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:19">
+    <row r="579" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>16</v>
       </c>
@@ -28894,7 +28894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:19">
+    <row r="580" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>16</v>
       </c>
@@ -28933,7 +28933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:19">
+    <row r="581" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>16</v>
       </c>
@@ -28972,7 +28972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:19">
+    <row r="582" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>16</v>
       </c>
@@ -29011,7 +29011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:19">
+    <row r="583" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>16</v>
       </c>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:19">
+    <row r="584" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>16</v>
       </c>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:19">
+    <row r="585" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>16</v>
       </c>
@@ -29128,7 +29128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:19">
+    <row r="586" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>16</v>
       </c>
@@ -29167,7 +29167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:19">
+    <row r="587" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>16</v>
       </c>
@@ -29206,7 +29206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:19">
+    <row r="588" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>16</v>
       </c>
@@ -29245,7 +29245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:19">
+    <row r="589" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>16</v>
       </c>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:19">
+    <row r="590" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>16</v>
       </c>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:19">
+    <row r="591" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>16</v>
       </c>
@@ -29362,7 +29362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:19">
+    <row r="592" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>16</v>
       </c>
@@ -29401,7 +29401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:19">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>16</v>
       </c>
@@ -29440,7 +29440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:19">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>16</v>
       </c>
@@ -29479,7 +29479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:19">
+    <row r="595" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>16</v>
       </c>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:19">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>16</v>
       </c>
@@ -29557,7 +29557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:19">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>16</v>
       </c>
@@ -29596,7 +29596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:19">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>16</v>
       </c>
@@ -29635,7 +29635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:19">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>16</v>
       </c>
@@ -29674,7 +29674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:19">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>16</v>
       </c>
@@ -29713,7 +29713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:19">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>16</v>
       </c>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:19">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>16</v>
       </c>
@@ -29791,7 +29791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:19">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>16</v>
       </c>
@@ -29830,7 +29830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:19">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>16</v>
       </c>
@@ -29869,7 +29869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:19">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>16</v>
       </c>
@@ -29908,7 +29908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:19">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>16</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:19">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>16</v>
       </c>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:19">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>16</v>
       </c>
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:19">
+    <row r="609" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>16</v>
       </c>
@@ -30064,7 +30064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:19">
+    <row r="610" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>16</v>
       </c>
@@ -30103,7 +30103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:19">
+    <row r="611" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>16</v>
       </c>
@@ -30142,7 +30142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:19">
+    <row r="612" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>16</v>
       </c>
@@ -30181,7 +30181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:19">
+    <row r="613" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>16</v>
       </c>
@@ -30220,7 +30220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:19">
+    <row r="614" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>16</v>
       </c>
@@ -30259,7 +30259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:19">
+    <row r="615" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>16</v>
       </c>
@@ -30298,7 +30298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:19">
+    <row r="616" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>16</v>
       </c>
@@ -30337,7 +30337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:19">
+    <row r="617" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>16</v>
       </c>
@@ -30376,7 +30376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:19">
+    <row r="618" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>16</v>
       </c>
@@ -30415,7 +30415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:19">
+    <row r="619" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>16</v>
       </c>
@@ -30454,7 +30454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:19">
+    <row r="620" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>16</v>
       </c>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:19">
+    <row r="621" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>16</v>
       </c>
@@ -30532,7 +30532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:19">
+    <row r="622" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>16</v>
       </c>
@@ -30571,7 +30571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:19">
+    <row r="623" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>16</v>
       </c>
@@ -30610,7 +30610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:19">
+    <row r="624" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>16</v>
       </c>
@@ -30649,7 +30649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:19">
+    <row r="625" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>16</v>
       </c>
@@ -30688,7 +30688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:19">
+    <row r="626" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>16</v>
       </c>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:19">
+    <row r="627" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>16</v>
       </c>
@@ -30766,7 +30766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:19">
+    <row r="628" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>16</v>
       </c>
@@ -30805,7 +30805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:19">
+    <row r="629" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>16</v>
       </c>
@@ -30844,7 +30844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:19">
+    <row r="630" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>16</v>
       </c>
@@ -30883,7 +30883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:19">
+    <row r="631" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>16</v>
       </c>
@@ -30922,7 +30922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:19">
+    <row r="632" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>16</v>
       </c>
@@ -30961,7 +30961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:19">
+    <row r="633" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>16</v>
       </c>
@@ -31000,7 +31000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:19">
+    <row r="634" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>16</v>
       </c>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:19">
+    <row r="635" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>16</v>
       </c>
@@ -31078,7 +31078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:19">
+    <row r="636" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>16</v>
       </c>
@@ -31117,7 +31117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:19">
+    <row r="637" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>16</v>
       </c>
@@ -31156,7 +31156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:19">
+    <row r="638" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>16</v>
       </c>
@@ -31195,7 +31195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:19">
+    <row r="639" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>16</v>
       </c>
@@ -31234,7 +31234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:19">
+    <row r="640" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>16</v>
       </c>
@@ -31273,7 +31273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:19">
+    <row r="641" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>16</v>
       </c>
@@ -31312,7 +31312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:19">
+    <row r="642" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>16</v>
       </c>
@@ -31351,7 +31351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:19">
+    <row r="643" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>16</v>
       </c>
@@ -31390,7 +31390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:19">
+    <row r="644" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>16</v>
       </c>
@@ -31429,7 +31429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:19">
+    <row r="645" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>16</v>
       </c>
@@ -31468,7 +31468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:19">
+    <row r="646" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>16</v>
       </c>
@@ -31507,7 +31507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:19">
+    <row r="647" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>16</v>
       </c>
@@ -31546,7 +31546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:19">
+    <row r="648" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>16</v>
       </c>
@@ -31585,7 +31585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:19">
+    <row r="649" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>16</v>
       </c>
@@ -31624,7 +31624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:19">
+    <row r="650" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>16</v>
       </c>
@@ -31663,7 +31663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:19">
+    <row r="651" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>16</v>
       </c>
@@ -31702,7 +31702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:19">
+    <row r="652" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>16</v>
       </c>
@@ -31741,7 +31741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:19">
+    <row r="653" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>16</v>
       </c>
@@ -31780,7 +31780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:19">
+    <row r="654" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>16</v>
       </c>
@@ -31819,7 +31819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:19">
+    <row r="655" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>16</v>
       </c>
@@ -31858,7 +31858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:19">
+    <row r="656" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>16</v>
       </c>
@@ -31897,7 +31897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:19">
+    <row r="657" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>16</v>
       </c>
@@ -31936,7 +31936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:19">
+    <row r="658" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>16</v>
       </c>
@@ -31975,7 +31975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:19">
+    <row r="659" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>16</v>
       </c>
@@ -32014,7 +32014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:19">
+    <row r="660" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>16</v>
       </c>
@@ -32053,7 +32053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:19">
+    <row r="661" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>16</v>
       </c>
@@ -32092,7 +32092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:19">
+    <row r="662" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>16</v>
       </c>
@@ -32131,7 +32131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:19">
+    <row r="663" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>16</v>
       </c>
@@ -32170,7 +32170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:19">
+    <row r="664" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>16</v>
       </c>
@@ -32209,7 +32209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:19">
+    <row r="665" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>16</v>
       </c>
@@ -32248,7 +32248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:19">
+    <row r="666" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>16</v>
       </c>
@@ -32287,7 +32287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:19">
+    <row r="667" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>16</v>
       </c>
@@ -32326,7 +32326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:19">
+    <row r="668" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>16</v>
       </c>
@@ -32365,7 +32365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:19">
+    <row r="669" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>16</v>
       </c>
@@ -32404,7 +32404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:19">
+    <row r="670" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>16</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:19">
+    <row r="671" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>16</v>
       </c>
@@ -32482,7 +32482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:19">
+    <row r="672" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>16</v>
       </c>
@@ -32521,7 +32521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:19">
+    <row r="673" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>16</v>
       </c>
@@ -32560,7 +32560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:19">
+    <row r="674" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>16</v>
       </c>
@@ -32599,7 +32599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:19">
+    <row r="675" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>16</v>
       </c>
@@ -32638,7 +32638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:19">
+    <row r="676" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>16</v>
       </c>
@@ -32677,7 +32677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:19">
+    <row r="677" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>16</v>
       </c>
@@ -32716,7 +32716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:19">
+    <row r="678" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>16</v>
       </c>
@@ -32755,7 +32755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:19">
+    <row r="679" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>16</v>
       </c>
@@ -32794,7 +32794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:19">
+    <row r="680" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>16</v>
       </c>
@@ -32833,7 +32833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:19">
+    <row r="681" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>16</v>
       </c>
@@ -32872,7 +32872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:19">
+    <row r="682" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>16</v>
       </c>
@@ -32911,7 +32911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:19">
+    <row r="683" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>16</v>
       </c>
@@ -32950,7 +32950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:19">
+    <row r="684" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>16</v>
       </c>
@@ -32989,7 +32989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:19">
+    <row r="685" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>16</v>
       </c>
@@ -33028,7 +33028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:19">
+    <row r="686" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>16</v>
       </c>
@@ -33067,7 +33067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:19">
+    <row r="687" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>16</v>
       </c>
@@ -33106,7 +33106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:19">
+    <row r="688" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>16</v>
       </c>
@@ -33145,7 +33145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:19">
+    <row r="689" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>16</v>
       </c>
@@ -33184,7 +33184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:19">
+    <row r="690" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>16</v>
       </c>
@@ -33223,7 +33223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:19">
+    <row r="691" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>16</v>
       </c>
@@ -33262,7 +33262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:19">
+    <row r="692" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>16</v>
       </c>
@@ -33301,7 +33301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:19">
+    <row r="693" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>16</v>
       </c>
@@ -33340,7 +33340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:19">
+    <row r="694" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>16</v>
       </c>
@@ -33379,7 +33379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:19">
+    <row r="695" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>16</v>
       </c>
@@ -33418,7 +33418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:19">
+    <row r="696" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>16</v>
       </c>
@@ -33457,7 +33457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:19">
+    <row r="697" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>16</v>
       </c>
@@ -33496,7 +33496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:19">
+    <row r="698" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>16</v>
       </c>
@@ -33535,7 +33535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:19">
+    <row r="699" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>16</v>
       </c>
@@ -33574,7 +33574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:19">
+    <row r="700" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>16</v>
       </c>
@@ -33613,7 +33613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:19">
+    <row r="701" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>16</v>
       </c>
@@ -33652,7 +33652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:19">
+    <row r="702" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>16</v>
       </c>
@@ -33691,7 +33691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:19">
+    <row r="703" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>16</v>
       </c>
@@ -33730,7 +33730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:19">
+    <row r="704" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>16</v>
       </c>
@@ -33769,7 +33769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:19">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>16</v>
       </c>
@@ -33808,7 +33808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:19">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>16</v>
       </c>
@@ -33847,7 +33847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:19">
+    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>16</v>
       </c>
@@ -33886,7 +33886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:19">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>16</v>
       </c>
@@ -33925,7 +33925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:19">
+    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>16</v>
       </c>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:19">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>16</v>
       </c>
@@ -34003,7 +34003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:19">
+    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>16</v>
       </c>
@@ -34042,7 +34042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:19">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>16</v>
       </c>
@@ -34081,7 +34081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:19">
+    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>16</v>
       </c>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:19">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>16</v>
       </c>
@@ -34159,7 +34159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:19">
+    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>16</v>
       </c>
@@ -34198,7 +34198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:19">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>16</v>
       </c>
@@ -34237,7 +34237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:19">
+    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>16</v>
       </c>
@@ -34276,7 +34276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:19">
+    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>16</v>
       </c>
@@ -34315,7 +34315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:19">
+    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>16</v>
       </c>
@@ -34354,7 +34354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:19">
+    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>16</v>
       </c>
@@ -34393,7 +34393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:19">
+    <row r="721" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>16</v>
       </c>
@@ -34432,7 +34432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:19">
+    <row r="722" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>16</v>
       </c>
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:19">
+    <row r="723" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>16</v>
       </c>
@@ -34510,7 +34510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:19">
+    <row r="724" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>16</v>
       </c>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:19">
+    <row r="725" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>16</v>
       </c>
@@ -34588,7 +34588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:19">
+    <row r="726" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>16</v>
       </c>
@@ -34627,7 +34627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:19">
+    <row r="727" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>16</v>
       </c>
@@ -34666,7 +34666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:19">
+    <row r="728" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>16</v>
       </c>
@@ -34705,7 +34705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:19">
+    <row r="729" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>16</v>
       </c>
@@ -34744,7 +34744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:19">
+    <row r="730" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>16</v>
       </c>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:19">
+    <row r="731" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>16</v>
       </c>
@@ -34822,7 +34822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:19">
+    <row r="732" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>16</v>
       </c>
@@ -34861,7 +34861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:19">
+    <row r="733" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>16</v>
       </c>
@@ -34900,7 +34900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:19">
+    <row r="734" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>16</v>
       </c>
@@ -34939,7 +34939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:19">
+    <row r="735" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>16</v>
       </c>
@@ -34978,7 +34978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:19">
+    <row r="736" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>16</v>
       </c>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:19">
+    <row r="737" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>16</v>
       </c>
@@ -35056,7 +35056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:19">
+    <row r="738" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>16</v>
       </c>
@@ -35095,7 +35095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:19">
+    <row r="739" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>16</v>
       </c>
@@ -35134,7 +35134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:19">
+    <row r="740" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>16</v>
       </c>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:19">
+    <row r="741" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>16</v>
       </c>
@@ -35212,7 +35212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:19">
+    <row r="742" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>16</v>
       </c>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:19">
+    <row r="743" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>16</v>
       </c>
@@ -35290,7 +35290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:19">
+    <row r="744" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>16</v>
       </c>
@@ -35329,7 +35329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:19">
+    <row r="745" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>16</v>
       </c>
@@ -35368,7 +35368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:19">
+    <row r="746" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>16</v>
       </c>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:19">
+    <row r="747" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>16</v>
       </c>
@@ -35446,7 +35446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:19">
+    <row r="748" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>16</v>
       </c>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:19">
+    <row r="749" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>16</v>
       </c>
@@ -35524,7 +35524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:19">
+    <row r="750" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>16</v>
       </c>
@@ -35563,7 +35563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:19">
+    <row r="751" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>16</v>
       </c>
@@ -35602,7 +35602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:19">
+    <row r="752" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>16</v>
       </c>
@@ -35641,7 +35641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:19">
+    <row r="753" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>16</v>
       </c>
@@ -35680,7 +35680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:19">
+    <row r="754" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
         <v>16</v>
       </c>
@@ -35719,7 +35719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:19">
+    <row r="755" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>16</v>
       </c>
@@ -35758,7 +35758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:19">
+    <row r="756" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>16</v>
       </c>
@@ -35797,7 +35797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:19">
+    <row r="757" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>16</v>
       </c>
@@ -35836,7 +35836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:19">
+    <row r="758" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>16</v>
       </c>
@@ -35875,7 +35875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:19">
+    <row r="759" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>16</v>
       </c>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:19">
+    <row r="760" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
         <v>16</v>
       </c>
@@ -35953,7 +35953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:19">
+    <row r="761" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>16</v>
       </c>
@@ -35992,7 +35992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:19">
+    <row r="762" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
         <v>16</v>
       </c>
@@ -36031,7 +36031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:19">
+    <row r="763" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>16</v>
       </c>
@@ -36070,7 +36070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:19">
+    <row r="764" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
         <v>16</v>
       </c>
@@ -36109,7 +36109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:19">
+    <row r="765" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>16</v>
       </c>
@@ -36148,7 +36148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:19">
+    <row r="766" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
         <v>16</v>
       </c>
@@ -36187,7 +36187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:19">
+    <row r="767" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>16</v>
       </c>
@@ -36226,7 +36226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:19">
+    <row r="768" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
         <v>16</v>
       </c>
@@ -36265,7 +36265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:19">
+    <row r="769" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>16</v>
       </c>
@@ -36304,7 +36304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:19">
+    <row r="770" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
         <v>16</v>
       </c>
@@ -36343,7 +36343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:19">
+    <row r="771" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
         <v>16</v>
       </c>
@@ -36382,7 +36382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:19">
+    <row r="772" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
         <v>16</v>
       </c>
@@ -36421,7 +36421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:19">
+    <row r="773" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>16</v>
       </c>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:19">
+    <row r="774" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
         <v>16</v>
       </c>
@@ -36499,7 +36499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:19">
+    <row r="775" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
         <v>16</v>
       </c>
@@ -36538,7 +36538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:19">
+    <row r="776" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
         <v>16</v>
       </c>
@@ -36577,7 +36577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:19">
+    <row r="777" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
         <v>16</v>
       </c>
@@ -36616,7 +36616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:19">
+    <row r="778" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
         <v>16</v>
       </c>
@@ -36655,7 +36655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:19">
+    <row r="779" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
         <v>16</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:19">
+    <row r="780" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
         <v>16</v>
       </c>
@@ -36733,7 +36733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:19">
+    <row r="781" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
         <v>16</v>
       </c>
@@ -36772,7 +36772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:19">
+    <row r="782" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
         <v>16</v>
       </c>
@@ -36811,7 +36811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:19">
+    <row r="783" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
         <v>16</v>
       </c>
@@ -36850,7 +36850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:19">
+    <row r="784" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
         <v>16</v>
       </c>
@@ -36889,7 +36889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:19">
+    <row r="785" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
         <v>16</v>
       </c>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:19">
+    <row r="786" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
         <v>16</v>
       </c>
@@ -36967,7 +36967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:19">
+    <row r="787" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
         <v>16</v>
       </c>
@@ -37006,7 +37006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:19">
+    <row r="788" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
         <v>16</v>
       </c>
@@ -37045,7 +37045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:19">
+    <row r="789" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>16</v>
       </c>
@@ -37084,7 +37084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:19">
+    <row r="790" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
         <v>16</v>
       </c>
@@ -37123,7 +37123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:19">
+    <row r="791" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
         <v>16</v>
       </c>
@@ -37162,7 +37162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:19">
+    <row r="792" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>16</v>
       </c>
@@ -37201,7 +37201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:19">
+    <row r="793" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
         <v>16</v>
       </c>
@@ -37240,7 +37240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:19">
+    <row r="794" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
         <v>16</v>
       </c>
@@ -37279,7 +37279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:19">
+    <row r="795" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
         <v>16</v>
       </c>
@@ -37344,14 +37344,14 @@
       <selection activeCell="XFD1" sqref="XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>225</v>
       </c>
@@ -37359,7 +37359,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>225</v>
       </c>
@@ -37367,7 +37367,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>225</v>
       </c>
@@ -37375,7 +37375,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>225</v>
       </c>
@@ -37383,7 +37383,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>225</v>
       </c>
@@ -37391,7 +37391,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>225</v>
       </c>
@@ -37399,7 +37399,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>225</v>
       </c>
@@ -37407,7 +37407,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>225</v>
       </c>
@@ -37415,7 +37415,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>225</v>
       </c>
@@ -37423,7 +37423,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>225</v>
       </c>
@@ -37431,7 +37431,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>225</v>
       </c>
@@ -37439,37 +37439,37 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>225</v>
       </c>
@@ -37477,7 +37477,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>225</v>
       </c>
@@ -37485,7 +37485,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="6:7">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>225</v>
       </c>
@@ -37493,7 +37493,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="6:7">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>225</v>
       </c>
@@ -37517,7 +37517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/SRS/requirements.xlsx
+++ b/SRS/requirements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="10935"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20328" windowHeight="10872"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1142,9 +1142,6 @@
     <t>Направление обмена данными по категориям из SAP PI в SAP hybris.  Ключевое поле - идентификатор категории (строка), наименование (строка), полное наименование, идентификатор родительской категории (строка), активность (флаг)</t>
   </si>
   <si>
-    <t>Направление обмена данными по складам из SAP PI в SAP hybris.  Ключевое поле - идентификатор склада  (строка), прочие поля - наименование (строка), адрес (строка), активность (флаг)</t>
-  </si>
-  <si>
     <t>Объекты обмена данными между SAP hybris и SAP PI: Номенклатура, Остатки, Цены, Заказы, Партнеры, контрагенты и сотрудники, Иерархия категорий, Склады, Статусы заказов</t>
   </si>
   <si>
@@ -1455,6 +1452,9 @@
   </si>
   <si>
     <t>Проверка актуальности остатков осуществляется при переходе к оформлению заказа. Актуальный статус стока выводится при подтверждении корзины в форме оформления заказа для каждого товара.</t>
+  </si>
+  <si>
+    <t>Направление обмена данными по складам из SAP PI в SAP hybris.  Ключевое поле - идентификатор склада  (строка), прочие поля - наименование (строка), активность (флаг), время отгрузки (строка), приоритет (число), страна (строка), регион (строка), индекс (строка), город (строка), адрес (строка)</t>
   </si>
 </sst>
 </file>
@@ -1701,141 +1701,141 @@
     </xf>
   </cellXfs>
   <cellStyles count="135">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1848,9 +1848,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1888,7 +1888,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1960,7 +1960,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2136,38 +2136,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G36" workbookViewId="0">
-      <selection activeCell="N122" sqref="N122"/>
+    <sheetView tabSelected="1" topLeftCell="E143" workbookViewId="0">
+      <selection activeCell="N155" sqref="N155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="19.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="1.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.42578125" customWidth="1"/>
-    <col min="11" max="11" width="1.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="48.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="72.42578125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1"/>
-    <col min="16" max="16" width="80.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="1"/>
-    <col min="19" max="19" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="19.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="1.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.44140625" customWidth="1"/>
+    <col min="11" max="11" width="1.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="48.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="72.44140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="80.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="P1" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>2</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2548,13 +2548,13 @@
         <v>12</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>404</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>2</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2605,13 +2605,13 @@
         <v>12</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>2</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>2</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>194</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>1</v>
@@ -3415,13 +3415,13 @@
         <v>12</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>2</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>2</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>2</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>194</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>1</v>
@@ -3535,13 +3535,13 @@
         <v>12</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>2</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>2</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>194</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>1</v>
@@ -3655,13 +3655,13 @@
         <v>12</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>2</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>2</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>2</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>194</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>1</v>
@@ -3775,13 +3775,13 @@
         <v>12</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>2</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>2</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>2</v>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>194</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>1</v>
@@ -3895,13 +3895,13 @@
         <v>12</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>2</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -3949,19 +3949,19 @@
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" t="s">
         <v>453</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" t="s">
-        <v>454</v>
-      </c>
       <c r="O32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>2</v>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -4075,13 +4075,13 @@
         <v>12</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>30</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>2</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>2</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>194</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>1</v>
@@ -4252,13 +4252,13 @@
         <v>12</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>2</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -4366,19 +4366,19 @@
         <v>3</v>
       </c>
       <c r="L39" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P39" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>2</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
@@ -4786,19 +4786,19 @@
         <v>3</v>
       </c>
       <c r="L46" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N46" s="4" t="s">
+      <c r="O46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P46" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>2</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>2</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>2</v>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>194</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>1</v>
@@ -4912,13 +4912,13 @@
         <v>12</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>2</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>2</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q60" s="1" t="s">
         <v>2</v>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>194</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>1</v>
@@ -5692,13 +5692,13 @@
         <v>12</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>2</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>2</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>2</v>
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>194</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>1</v>
@@ -5812,13 +5812,13 @@
         <v>12</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>2</v>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>2</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q64" s="1" t="s">
         <v>2</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>194</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>1</v>
@@ -5932,13 +5932,13 @@
         <v>12</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>2</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>2</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>2</v>
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>194</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>1</v>
@@ -6052,13 +6052,13 @@
         <v>12</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q67" s="1" t="s">
         <v>2</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>16</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>16</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>16</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>16</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>16</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>16</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>16</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>16</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>16</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>16</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>16</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>16</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>16</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>16</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>16</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>16</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>16</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>16</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>16</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>16</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>16</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>16</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>16</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>16</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>16</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>16</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>16</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>16</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>16</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>16</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>16</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>16</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>16</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>16</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>16</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>16</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>16</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>2</v>
       </c>
       <c r="P118" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q118" s="1" t="s">
         <v>2</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>16</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>16</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>16</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>16</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>16</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>16</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>16</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>16</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>16</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="P128" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q128" s="1" t="s">
         <v>2</v>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
@@ -9724,13 +9724,13 @@
         <v>12</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P129" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q129" s="1" t="s">
         <v>2</v>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>16</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>2</v>
       </c>
       <c r="P130" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q130" s="1" t="s">
         <v>2</v>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>16</v>
       </c>
@@ -9838,13 +9838,13 @@
         <v>12</v>
       </c>
       <c r="N131" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O131" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P131" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q131" s="1" t="s">
         <v>2</v>
@@ -9856,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="216" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>16</v>
       </c>
@@ -9895,13 +9895,13 @@
         <v>12</v>
       </c>
       <c r="N132" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P132" s="6" t="s">
         <v>471</v>
-      </c>
-      <c r="O132" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P132" s="6" t="s">
-        <v>472</v>
       </c>
       <c r="Q132" s="1" t="s">
         <v>2</v>
@@ -9913,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>16</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>2</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q133" s="1" t="s">
         <v>2</v>
@@ -9970,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>16</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>2</v>
       </c>
       <c r="P134" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q134" s="1" t="s">
         <v>2</v>
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>16</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>12</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O135" s="1" t="s">
         <v>2</v>
@@ -10087,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>16</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>2</v>
       </c>
       <c r="P136" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q136" s="1" t="s">
         <v>2</v>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>16</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>2</v>
       </c>
       <c r="P137" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q137" s="1" t="s">
         <v>2</v>
@@ -10207,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>16</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>2</v>
       </c>
       <c r="P138" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q138" s="1" t="s">
         <v>2</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>16</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>16</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>16</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>16</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>16</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>16</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>16</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>16</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>16</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>16</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>16</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>2</v>
       </c>
       <c r="P149" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q149" s="1" t="s">
         <v>2</v>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>16</v>
       </c>
@@ -10969,13 +10969,13 @@
         <v>12</v>
       </c>
       <c r="N150" s="4" t="s">
-        <v>372</v>
+        <v>476</v>
       </c>
       <c r="O150" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P150" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q150" s="1" t="s">
         <v>2</v>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>16</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>12</v>
       </c>
       <c r="N151" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O151" s="1" t="s">
         <v>2</v>
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>16</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>2</v>
       </c>
       <c r="P152" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q152" s="1" t="s">
         <v>2</v>
@@ -11107,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>16</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>2</v>
       </c>
       <c r="P153" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q153" s="1" t="s">
         <v>2</v>
@@ -11167,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>16</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>2</v>
       </c>
       <c r="P154" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q154" s="1" t="s">
         <v>2</v>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>16</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>2</v>
       </c>
       <c r="P155" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q155" s="1" t="s">
         <v>2</v>
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>16</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>2</v>
       </c>
       <c r="P156" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q156" s="1" t="s">
         <v>2</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>16</v>
       </c>
@@ -11389,13 +11389,13 @@
         <v>12</v>
       </c>
       <c r="N157" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O157" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P157" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q157" s="1" t="s">
         <v>2</v>
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>16</v>
       </c>
@@ -11449,13 +11449,13 @@
         <v>12</v>
       </c>
       <c r="N158" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O158" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P158" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q158" s="1" t="s">
         <v>2</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>16</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>2</v>
       </c>
       <c r="P159" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q159" s="1" t="s">
         <v>2</v>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>16</v>
       </c>
@@ -11569,13 +11569,13 @@
         <v>12</v>
       </c>
       <c r="N160" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O160" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q160" s="1" t="s">
         <v>2</v>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>16</v>
       </c>
@@ -11629,13 +11629,13 @@
         <v>12</v>
       </c>
       <c r="N161" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O161" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P161" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q161" s="1" t="s">
         <v>2</v>
@@ -11647,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>16</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>16</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>16</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>16</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>16</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>16</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>16</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>16</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>16</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>16</v>
       </c>
@@ -12382,13 +12382,13 @@
         <v>12</v>
       </c>
       <c r="N174" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P174" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q174" s="1" t="s">
         <v>2</v>
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>16</v>
       </c>
@@ -12436,19 +12436,19 @@
         <v>3</v>
       </c>
       <c r="L175" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N175" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="M175" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N175" s="4" t="s">
+      <c r="O175" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P175" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="O175" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P175" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="Q175" s="1" t="s">
         <v>2</v>
@@ -12460,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>16</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>2</v>
       </c>
       <c r="P176" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q176" s="1" t="s">
         <v>2</v>
@@ -12517,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>16</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>194</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>1</v>
@@ -12556,13 +12556,13 @@
         <v>12</v>
       </c>
       <c r="N177" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P177" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q177" s="1" t="s">
         <v>2</v>
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>16</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>16</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>16</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>16</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>2</v>
       </c>
       <c r="P181" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q181" s="1" t="s">
         <v>2</v>
@@ -12811,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>16</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>194</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>1</v>
@@ -12853,13 +12853,13 @@
         <v>12</v>
       </c>
       <c r="N182" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P182" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q182" s="1" t="s">
         <v>2</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>16</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>16</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>16</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>16</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>2</v>
       </c>
       <c r="P186" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q186" s="1" t="s">
         <v>2</v>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>16</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>2</v>
       </c>
       <c r="P187" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q187" s="1" t="s">
         <v>2</v>
@@ -13168,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>16</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>194</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>1</v>
@@ -13207,13 +13207,13 @@
         <v>12</v>
       </c>
       <c r="N188" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P188" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q188" s="1" t="s">
         <v>2</v>
@@ -13225,7 +13225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>16</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>16</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>16</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>16</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>16</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>16</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>16</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>16</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>16</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>16</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>2</v>
       </c>
       <c r="P198" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q198" s="1" t="s">
         <v>2</v>
@@ -13804,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>16</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>194</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>1</v>
@@ -13846,13 +13846,13 @@
         <v>12</v>
       </c>
       <c r="N199" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P199" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q199" s="1" t="s">
         <v>2</v>
@@ -13864,7 +13864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>16</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>16</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>16</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>16</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>16</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>16</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>12</v>
       </c>
       <c r="N206" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>2</v>
@@ -14272,12 +14272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>17</v>
@@ -14302,13 +14302,13 @@
         <v>3</v>
       </c>
       <c r="L207" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N207" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="M207" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N207" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>2</v>
@@ -14326,12 +14326,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>17</v>
@@ -14356,13 +14356,13 @@
         <v>3</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M208" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N208" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>2</v>
@@ -14380,12 +14380,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>17</v>
@@ -14410,13 +14410,13 @@
         <v>3</v>
       </c>
       <c r="L209" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N209" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="M209" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N209" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>2</v>
@@ -14434,12 +14434,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>17</v>
@@ -14464,13 +14464,13 @@
         <v>3</v>
       </c>
       <c r="L210" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N210" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="M210" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N210" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>2</v>
@@ -14488,12 +14488,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>17</v>
@@ -14518,19 +14518,19 @@
         <v>3</v>
       </c>
       <c r="L211" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N211" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="M211" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N211" s="4" t="s">
+      <c r="O211" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P211" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="O211" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P211" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="Q211" s="1" t="s">
         <v>2</v>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>16</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>16</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>16</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>16</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>16</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>16</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>16</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>16</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>16</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>16</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>16</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>16</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>16</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>16</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>16</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>16</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>16</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>16</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>16</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>16</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>16</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>16</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>16</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>16</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>16</v>
       </c>
@@ -15517,7 +15517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>16</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>16</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>16</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>16</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>16</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>16</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>16</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>16</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>16</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>16</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>16</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>16</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>16</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>16</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>16</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>16</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>16</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>16</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>16</v>
       </c>
@@ -16297,7 +16297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>16</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>16</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>16</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>16</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>16</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>16</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>16</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>16</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>16</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>16</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>16</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>16</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>16</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>16</v>
       </c>
@@ -16843,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>16</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>16</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>16</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>16</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>16</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>16</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>16</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>16</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>16</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>16</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>16</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>16</v>
       </c>
@@ -17311,7 +17311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>16</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>16</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>16</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>16</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>16</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>16</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>16</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>16</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>16</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>16</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>16</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>16</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>16</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>16</v>
       </c>
@@ -17857,7 +17857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>16</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>16</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>16</v>
       </c>
@@ -17974,7 +17974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>16</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>16</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>16</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>16</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>16</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>16</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>16</v>
       </c>
@@ -18247,7 +18247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>16</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>16</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>16</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>16</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>16</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>16</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>16</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>16</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>16</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>16</v>
       </c>
@@ -18637,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>16</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>16</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>16</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>16</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>16</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>16</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>16</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>16</v>
       </c>
@@ -18949,7 +18949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>16</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>16</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>16</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>16</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>16</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>16</v>
       </c>
@@ -19183,7 +19183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>16</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>16</v>
       </c>
@@ -19261,7 +19261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>16</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>16</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>16</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>16</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>16</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>16</v>
       </c>
@@ -19495,7 +19495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>16</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>16</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>16</v>
       </c>
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>16</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>16</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>16</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>16</v>
       </c>
@@ -19768,7 +19768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>16</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>16</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>16</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>16</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>16</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>16</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>16</v>
       </c>
@@ -20041,7 +20041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>16</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>16</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>16</v>
       </c>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>16</v>
       </c>
@@ -20197,7 +20197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>16</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>16</v>
       </c>
@@ -20275,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>16</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>16</v>
       </c>
@@ -20353,7 +20353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>16</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>16</v>
       </c>
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>16</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>16</v>
       </c>
@@ -20509,7 +20509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>16</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>16</v>
       </c>
@@ -20587,7 +20587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>16</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>16</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>16</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>16</v>
       </c>
@@ -20743,7 +20743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>16</v>
       </c>
@@ -20782,7 +20782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>16</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>16</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>16</v>
       </c>
@@ -20899,7 +20899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>16</v>
       </c>
@@ -20938,7 +20938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>16</v>
       </c>
@@ -20977,7 +20977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>16</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>16</v>
       </c>
@@ -21055,7 +21055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>16</v>
       </c>
@@ -21094,7 +21094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>16</v>
       </c>
@@ -21133,7 +21133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>16</v>
       </c>
@@ -21172,7 +21172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>16</v>
       </c>
@@ -21211,7 +21211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>16</v>
       </c>
@@ -21250,7 +21250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>16</v>
       </c>
@@ -21289,7 +21289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>16</v>
       </c>
@@ -21328,7 +21328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>16</v>
       </c>
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>16</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>16</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>16</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>16</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>16</v>
       </c>
@@ -21562,7 +21562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>16</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>16</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>16</v>
       </c>
@@ -21679,7 +21679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>16</v>
       </c>
@@ -21718,7 +21718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>16</v>
       </c>
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>16</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>16</v>
       </c>
@@ -21835,7 +21835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>16</v>
       </c>
@@ -21874,7 +21874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>16</v>
       </c>
@@ -21913,7 +21913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>16</v>
       </c>
@@ -21952,7 +21952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>16</v>
       </c>
@@ -21991,7 +21991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>16</v>
       </c>
@@ -22030,7 +22030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>16</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>16</v>
       </c>
@@ -22108,7 +22108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>16</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>16</v>
       </c>
@@ -22186,7 +22186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>16</v>
       </c>
@@ -22225,7 +22225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>16</v>
       </c>
@@ -22264,7 +22264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>16</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>16</v>
       </c>
@@ -22342,7 +22342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>16</v>
       </c>
@@ -22381,7 +22381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>16</v>
       </c>
@@ -22420,7 +22420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>16</v>
       </c>
@@ -22459,7 +22459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>16</v>
       </c>
@@ -22498,7 +22498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>16</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>16</v>
       </c>
@@ -22576,7 +22576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>16</v>
       </c>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>16</v>
       </c>
@@ -22654,7 +22654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>16</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>16</v>
       </c>
@@ -22732,7 +22732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>16</v>
       </c>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>16</v>
       </c>
@@ -22810,7 +22810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>16</v>
       </c>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>16</v>
       </c>
@@ -22888,7 +22888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>16</v>
       </c>
@@ -22927,7 +22927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>16</v>
       </c>
@@ -22966,7 +22966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>16</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>16</v>
       </c>
@@ -23044,7 +23044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>16</v>
       </c>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>16</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>16</v>
       </c>
@@ -23161,7 +23161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>16</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>16</v>
       </c>
@@ -23239,7 +23239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>16</v>
       </c>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>16</v>
       </c>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>16</v>
       </c>
@@ -23356,7 +23356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>16</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>16</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>16</v>
       </c>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>16</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>16</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>16</v>
       </c>
@@ -23590,7 +23590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>16</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>16</v>
       </c>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>16</v>
       </c>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>16</v>
       </c>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>16</v>
       </c>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>16</v>
       </c>
@@ -23824,7 +23824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>16</v>
       </c>
@@ -23863,7 +23863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>16</v>
       </c>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>16</v>
       </c>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>16</v>
       </c>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>16</v>
       </c>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>16</v>
       </c>
@@ -24058,7 +24058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>16</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>16</v>
       </c>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>16</v>
       </c>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>16</v>
       </c>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>16</v>
       </c>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>16</v>
       </c>
@@ -24292,7 +24292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>16</v>
       </c>
@@ -24331,7 +24331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>16</v>
       </c>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>16</v>
       </c>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>16</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>16</v>
       </c>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>16</v>
       </c>
@@ -24526,7 +24526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>16</v>
       </c>
@@ -24565,7 +24565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>16</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>16</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>16</v>
       </c>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>16</v>
       </c>
@@ -24721,7 +24721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>16</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>16</v>
       </c>
@@ -24799,7 +24799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>16</v>
       </c>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>16</v>
       </c>
@@ -24877,7 +24877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>16</v>
       </c>
@@ -24916,7 +24916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>16</v>
       </c>
@@ -24955,7 +24955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>16</v>
       </c>
@@ -24994,7 +24994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>16</v>
       </c>
@@ -25033,7 +25033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>16</v>
       </c>
@@ -25072,7 +25072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>16</v>
       </c>
@@ -25111,7 +25111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>16</v>
       </c>
@@ -25150,7 +25150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>16</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>16</v>
       </c>
@@ -25228,7 +25228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>16</v>
       </c>
@@ -25267,7 +25267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>16</v>
       </c>
@@ -25306,7 +25306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>16</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>16</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>16</v>
       </c>
@@ -25423,7 +25423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>16</v>
       </c>
@@ -25462,7 +25462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>16</v>
       </c>
@@ -25501,7 +25501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>16</v>
       </c>
@@ -25540,7 +25540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>16</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>16</v>
       </c>
@@ -25618,7 +25618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>16</v>
       </c>
@@ -25657,7 +25657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>16</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>16</v>
       </c>
@@ -25735,7 +25735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>16</v>
       </c>
@@ -25774,7 +25774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>16</v>
       </c>
@@ -25813,7 +25813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>16</v>
       </c>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>16</v>
       </c>
@@ -25891,7 +25891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>16</v>
       </c>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>16</v>
       </c>
@@ -25969,7 +25969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>16</v>
       </c>
@@ -26008,7 +26008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>16</v>
       </c>
@@ -26047,7 +26047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>16</v>
       </c>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>16</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>16</v>
       </c>
@@ -26164,7 +26164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>16</v>
       </c>
@@ -26203,7 +26203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>16</v>
       </c>
@@ -26242,7 +26242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>16</v>
       </c>
@@ -26281,7 +26281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>16</v>
       </c>
@@ -26320,7 +26320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>16</v>
       </c>
@@ -26359,7 +26359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>16</v>
       </c>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>16</v>
       </c>
@@ -26437,7 +26437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>16</v>
       </c>
@@ -26476,7 +26476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>16</v>
       </c>
@@ -26515,7 +26515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>16</v>
       </c>
@@ -26554,7 +26554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>16</v>
       </c>
@@ -26593,7 +26593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>16</v>
       </c>
@@ -26632,7 +26632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>16</v>
       </c>
@@ -26671,7 +26671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>16</v>
       </c>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>16</v>
       </c>
@@ -26749,7 +26749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>16</v>
       </c>
@@ -26788,7 +26788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>16</v>
       </c>
@@ -26827,7 +26827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>16</v>
       </c>
@@ -26866,7 +26866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>16</v>
       </c>
@@ -26905,7 +26905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>16</v>
       </c>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>16</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>16</v>
       </c>
@@ -27022,7 +27022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>16</v>
       </c>
@@ -27061,7 +27061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>16</v>
       </c>
@@ -27100,7 +27100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>16</v>
       </c>
@@ -27139,7 +27139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>16</v>
       </c>
@@ -27178,7 +27178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>16</v>
       </c>
@@ -27217,7 +27217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>16</v>
       </c>
@@ -27256,7 +27256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>16</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>16</v>
       </c>
@@ -27334,7 +27334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>16</v>
       </c>
@@ -27373,7 +27373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>16</v>
       </c>
@@ -27412,7 +27412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>16</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>16</v>
       </c>
@@ -27490,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>16</v>
       </c>
@@ -27529,7 +27529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>16</v>
       </c>
@@ -27568,7 +27568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>16</v>
       </c>
@@ -27607,7 +27607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>16</v>
       </c>
@@ -27646,7 +27646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>16</v>
       </c>
@@ -27685,7 +27685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>16</v>
       </c>
@@ -27724,7 +27724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>16</v>
       </c>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>16</v>
       </c>
@@ -27802,7 +27802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>16</v>
       </c>
@@ -27841,7 +27841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>16</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>16</v>
       </c>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>16</v>
       </c>
@@ -27958,7 +27958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>16</v>
       </c>
@@ -27997,7 +27997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>16</v>
       </c>
@@ -28036,7 +28036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>16</v>
       </c>
@@ -28075,7 +28075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>16</v>
       </c>
@@ -28114,7 +28114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>16</v>
       </c>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>16</v>
       </c>
@@ -28192,7 +28192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>16</v>
       </c>
@@ -28231,7 +28231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>16</v>
       </c>
@@ -28270,7 +28270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>16</v>
       </c>
@@ -28309,7 +28309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>16</v>
       </c>
@@ -28348,7 +28348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>16</v>
       </c>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>16</v>
       </c>
@@ -28426,7 +28426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>16</v>
       </c>
@@ -28465,7 +28465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>16</v>
       </c>
@@ -28504,7 +28504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>16</v>
       </c>
@@ -28543,7 +28543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>16</v>
       </c>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>16</v>
       </c>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>16</v>
       </c>
@@ -28660,7 +28660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>16</v>
       </c>
@@ -28699,7 +28699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>16</v>
       </c>
@@ -28738,7 +28738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>16</v>
       </c>
@@ -28777,7 +28777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>16</v>
       </c>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>16</v>
       </c>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>16</v>
       </c>
@@ -28894,7 +28894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>16</v>
       </c>
@@ -28933,7 +28933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>16</v>
       </c>
@@ -28972,7 +28972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>16</v>
       </c>
@@ -29011,7 +29011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>16</v>
       </c>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>16</v>
       </c>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>16</v>
       </c>
@@ -29128,7 +29128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>16</v>
       </c>
@@ -29167,7 +29167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>16</v>
       </c>
@@ -29206,7 +29206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>16</v>
       </c>
@@ -29245,7 +29245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>16</v>
       </c>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>16</v>
       </c>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>16</v>
       </c>
@@ -29362,7 +29362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>16</v>
       </c>
@@ -29401,7 +29401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>16</v>
       </c>
@@ -29440,7 +29440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>16</v>
       </c>
@@ -29479,7 +29479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>16</v>
       </c>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>16</v>
       </c>
@@ -29557,7 +29557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>16</v>
       </c>
@@ -29596,7 +29596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>16</v>
       </c>
@@ -29635,7 +29635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>16</v>
       </c>
@@ -29674,7 +29674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>16</v>
       </c>
@@ -29713,7 +29713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>16</v>
       </c>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>16</v>
       </c>
@@ -29791,7 +29791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>16</v>
       </c>
@@ -29830,7 +29830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>16</v>
       </c>
@@ -29869,7 +29869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>16</v>
       </c>
@@ -29908,7 +29908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>16</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>16</v>
       </c>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>16</v>
       </c>
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>16</v>
       </c>
@@ -30064,7 +30064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>16</v>
       </c>
@@ -30103,7 +30103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>16</v>
       </c>
@@ -30142,7 +30142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>16</v>
       </c>
@@ -30181,7 +30181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>16</v>
       </c>
@@ -30220,7 +30220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>16</v>
       </c>
@@ -30259,7 +30259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>16</v>
       </c>
@@ -30298,7 +30298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>16</v>
       </c>
@@ -30337,7 +30337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>16</v>
       </c>
@@ -30376,7 +30376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>16</v>
       </c>
@@ -30415,7 +30415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>16</v>
       </c>
@@ -30454,7 +30454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>16</v>
       </c>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>16</v>
       </c>
@@ -30532,7 +30532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>16</v>
       </c>
@@ -30571,7 +30571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>16</v>
       </c>
@@ -30610,7 +30610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>16</v>
       </c>
@@ -30649,7 +30649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>16</v>
       </c>
@@ -30688,7 +30688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>16</v>
       </c>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>16</v>
       </c>
@@ -30766,7 +30766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>16</v>
       </c>
@@ -30805,7 +30805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>16</v>
       </c>
@@ -30844,7 +30844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>16</v>
       </c>
@@ -30883,7 +30883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>16</v>
       </c>
@@ -30922,7 +30922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>16</v>
       </c>
@@ -30961,7 +30961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>16</v>
       </c>
@@ -31000,7 +31000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>16</v>
       </c>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>16</v>
       </c>
@@ -31078,7 +31078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>16</v>
       </c>
@@ -31117,7 +31117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>16</v>
       </c>
@@ -31156,7 +31156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>16</v>
       </c>
@@ -31195,7 +31195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>16</v>
       </c>
@@ -31234,7 +31234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>16</v>
       </c>
@@ -31273,7 +31273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>16</v>
       </c>
@@ -31312,7 +31312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>16</v>
       </c>
@@ -31351,7 +31351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>16</v>
       </c>
@@ -31390,7 +31390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>16</v>
       </c>
@@ -31429,7 +31429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>16</v>
       </c>
@@ -31468,7 +31468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>16</v>
       </c>
@@ -31507,7 +31507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>16</v>
       </c>
@@ -31546,7 +31546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>16</v>
       </c>
@@ -31585,7 +31585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>16</v>
       </c>
@@ -31624,7 +31624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>16</v>
       </c>
@@ -31663,7 +31663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>16</v>
       </c>
@@ -31702,7 +31702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>16</v>
       </c>
@@ -31741,7 +31741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>16</v>
       </c>
@@ -31780,7 +31780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>16</v>
       </c>
@@ -31819,7 +31819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>16</v>
       </c>
@@ -31858,7 +31858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>16</v>
       </c>
@@ -31897,7 +31897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>16</v>
       </c>
@@ -31936,7 +31936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>16</v>
       </c>
@@ -31975,7 +31975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>16</v>
       </c>
@@ -32014,7 +32014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>16</v>
       </c>
@@ -32053,7 +32053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>16</v>
       </c>
@@ -32092,7 +32092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>16</v>
       </c>
@@ -32131,7 +32131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>16</v>
       </c>
@@ -32170,7 +32170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>16</v>
       </c>
@@ -32209,7 +32209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>16</v>
       </c>
@@ -32248,7 +32248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>16</v>
       </c>
@@ -32287,7 +32287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>16</v>
       </c>
@@ -32326,7 +32326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>16</v>
       </c>
@@ -32365,7 +32365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>16</v>
       </c>
@@ -32404,7 +32404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>16</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>16</v>
       </c>
@@ -32482,7 +32482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>16</v>
       </c>
@@ -32521,7 +32521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>16</v>
       </c>
@@ -32560,7 +32560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>16</v>
       </c>
@@ -32599,7 +32599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>16</v>
       </c>
@@ -32638,7 +32638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>16</v>
       </c>
@@ -32677,7 +32677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>16</v>
       </c>
@@ -32716,7 +32716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>16</v>
       </c>
@@ -32755,7 +32755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>16</v>
       </c>
@@ -32794,7 +32794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>16</v>
       </c>
@@ -32833,7 +32833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>16</v>
       </c>
@@ -32872,7 +32872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>16</v>
       </c>
@@ -32911,7 +32911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>16</v>
       </c>
@@ -32950,7 +32950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>16</v>
       </c>
@@ -32989,7 +32989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>16</v>
       </c>
@@ -33028,7 +33028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>16</v>
       </c>
@@ -33067,7 +33067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>16</v>
       </c>
@@ -33106,7 +33106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>16</v>
       </c>
@@ -33145,7 +33145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>16</v>
       </c>
@@ -33184,7 +33184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
         <v>16</v>
       </c>
@@ -33223,7 +33223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>16</v>
       </c>
@@ -33262,7 +33262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>16</v>
       </c>
@@ -33301,7 +33301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
         <v>16</v>
       </c>
@@ -33340,7 +33340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>16</v>
       </c>
@@ -33379,7 +33379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>16</v>
       </c>
@@ -33418,7 +33418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>16</v>
       </c>
@@ -33457,7 +33457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>16</v>
       </c>
@@ -33496,7 +33496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>16</v>
       </c>
@@ -33535,7 +33535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>16</v>
       </c>
@@ -33574,7 +33574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>16</v>
       </c>
@@ -33613,7 +33613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>16</v>
       </c>
@@ -33652,7 +33652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
         <v>16</v>
       </c>
@@ -33691,7 +33691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>16</v>
       </c>
@@ -33730,7 +33730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>16</v>
       </c>
@@ -33769,7 +33769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
         <v>16</v>
       </c>
@@ -33808,7 +33808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>16</v>
       </c>
@@ -33847,7 +33847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>16</v>
       </c>
@@ -33886,7 +33886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
         <v>16</v>
       </c>
@@ -33925,7 +33925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>16</v>
       </c>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>16</v>
       </c>
@@ -34003,7 +34003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>16</v>
       </c>
@@ -34042,7 +34042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>16</v>
       </c>
@@ -34081,7 +34081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>16</v>
       </c>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A714" s="1" t="s">
         <v>16</v>
       </c>
@@ -34159,7 +34159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
         <v>16</v>
       </c>
@@ -34198,7 +34198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
         <v>16</v>
       </c>
@@ -34237,7 +34237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
         <v>16</v>
       </c>
@@ -34276,7 +34276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
         <v>16</v>
       </c>
@@ -34315,7 +34315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
         <v>16</v>
       </c>
@@ -34354,7 +34354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
         <v>16</v>
       </c>
@@ -34393,7 +34393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
         <v>16</v>
       </c>
@@ -34432,7 +34432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
         <v>16</v>
       </c>
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A723" s="1" t="s">
         <v>16</v>
       </c>
@@ -34510,7 +34510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A724" s="1" t="s">
         <v>16</v>
       </c>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A725" s="1" t="s">
         <v>16</v>
       </c>
@@ -34588,7 +34588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A726" s="1" t="s">
         <v>16</v>
       </c>
@@ -34627,7 +34627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
         <v>16</v>
       </c>
@@ -34666,7 +34666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
         <v>16</v>
       </c>
@@ -34705,7 +34705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A729" s="1" t="s">
         <v>16</v>
       </c>
@@ -34744,7 +34744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
         <v>16</v>
       </c>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A731" s="1" t="s">
         <v>16</v>
       </c>
@@ -34822,7 +34822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A732" s="1" t="s">
         <v>16</v>
       </c>
@@ -34861,7 +34861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A733" s="1" t="s">
         <v>16</v>
       </c>
@@ -34900,7 +34900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A734" s="1" t="s">
         <v>16</v>
       </c>
@@ -34939,7 +34939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A735" s="1" t="s">
         <v>16</v>
       </c>
@@ -34978,7 +34978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A736" s="1" t="s">
         <v>16</v>
       </c>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A737" s="1" t="s">
         <v>16</v>
       </c>
@@ -35056,7 +35056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A738" s="1" t="s">
         <v>16</v>
       </c>
@@ -35095,7 +35095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A739" s="1" t="s">
         <v>16</v>
       </c>
@@ -35134,7 +35134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
         <v>16</v>
       </c>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A741" s="1" t="s">
         <v>16</v>
       </c>
@@ -35212,7 +35212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
         <v>16</v>
       </c>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
         <v>16</v>
       </c>
@@ -35290,7 +35290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A744" s="1" t="s">
         <v>16</v>
       </c>
@@ -35329,7 +35329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>16</v>
       </c>
@@ -35368,7 +35368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
         <v>16</v>
       </c>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A747" s="1" t="s">
         <v>16</v>
       </c>
@@ -35446,7 +35446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
         <v>16</v>
       </c>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
         <v>16</v>
       </c>
@@ -35524,7 +35524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
         <v>16</v>
       </c>
@@ -35563,7 +35563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
         <v>16</v>
       </c>
@@ -35602,7 +35602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
         <v>16</v>
       </c>
@@ -35641,7 +35641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A753" s="1" t="s">
         <v>16</v>
       </c>
@@ -35680,7 +35680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
         <v>16</v>
       </c>
@@ -35719,7 +35719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
         <v>16</v>
       </c>
@@ -35758,7 +35758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
         <v>16</v>
       </c>
@@ -35797,7 +35797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
         <v>16</v>
       </c>
@@ -35836,7 +35836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
         <v>16</v>
       </c>
@@ -35875,7 +35875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A759" s="1" t="s">
         <v>16</v>
       </c>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>16</v>
       </c>
@@ -35953,7 +35953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
         <v>16</v>
       </c>
@@ -35992,7 +35992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
         <v>16</v>
       </c>
@@ -36031,7 +36031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
         <v>16</v>
       </c>
@@ -36070,7 +36070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
         <v>16</v>
       </c>
@@ -36109,7 +36109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
         <v>16</v>
       </c>
@@ -36148,7 +36148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
         <v>16</v>
       </c>
@@ -36187,7 +36187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
         <v>16</v>
       </c>
@@ -36226,7 +36226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A768" s="1" t="s">
         <v>16</v>
       </c>
@@ -36265,7 +36265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A769" s="1" t="s">
         <v>16</v>
       </c>
@@ -36304,7 +36304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
         <v>16</v>
       </c>
@@ -36343,7 +36343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A771" s="1" t="s">
         <v>16</v>
       </c>
@@ -36382,7 +36382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A772" s="1" t="s">
         <v>16</v>
       </c>
@@ -36421,7 +36421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A773" s="1" t="s">
         <v>16</v>
       </c>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A774" s="1" t="s">
         <v>16</v>
       </c>
@@ -36499,7 +36499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A775" s="1" t="s">
         <v>16</v>
       </c>
@@ -36538,7 +36538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A776" s="1" t="s">
         <v>16</v>
       </c>
@@ -36577,7 +36577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A777" s="1" t="s">
         <v>16</v>
       </c>
@@ -36616,7 +36616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A778" s="1" t="s">
         <v>16</v>
       </c>
@@ -36655,7 +36655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A779" s="1" t="s">
         <v>16</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A780" s="1" t="s">
         <v>16</v>
       </c>
@@ -36733,7 +36733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
         <v>16</v>
       </c>
@@ -36772,7 +36772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
         <v>16</v>
       </c>
@@ -36811,7 +36811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A783" s="1" t="s">
         <v>16</v>
       </c>
@@ -36850,7 +36850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A784" s="1" t="s">
         <v>16</v>
       </c>
@@ -36889,7 +36889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A785" s="1" t="s">
         <v>16</v>
       </c>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A786" s="1" t="s">
         <v>16</v>
       </c>
@@ -36967,7 +36967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A787" s="1" t="s">
         <v>16</v>
       </c>
@@ -37006,7 +37006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A788" s="1" t="s">
         <v>16</v>
       </c>
@@ -37045,7 +37045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A789" s="1" t="s">
         <v>16</v>
       </c>
@@ -37084,7 +37084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A790" s="1" t="s">
         <v>16</v>
       </c>
@@ -37123,7 +37123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A791" s="1" t="s">
         <v>16</v>
       </c>
@@ -37162,7 +37162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A792" s="1" t="s">
         <v>16</v>
       </c>
@@ -37201,7 +37201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A793" s="1" t="s">
         <v>16</v>
       </c>
@@ -37240,7 +37240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A794" s="1" t="s">
         <v>16</v>
       </c>
@@ -37279,7 +37279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A795" s="1" t="s">
         <v>16</v>
       </c>
@@ -37344,14 +37344,14 @@
       <selection activeCell="XFD1" sqref="XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>225</v>
       </c>
@@ -37359,7 +37359,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>225</v>
       </c>
@@ -37367,7 +37367,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>225</v>
       </c>
@@ -37375,7 +37375,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>225</v>
       </c>
@@ -37383,7 +37383,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>225</v>
       </c>
@@ -37391,7 +37391,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>225</v>
       </c>
@@ -37399,7 +37399,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>225</v>
       </c>
@@ -37407,7 +37407,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>225</v>
       </c>
@@ -37415,7 +37415,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>225</v>
       </c>
@@ -37423,7 +37423,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>225</v>
       </c>
@@ -37431,7 +37431,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>225</v>
       </c>
@@ -37439,37 +37439,37 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>225</v>
       </c>
@@ -37477,7 +37477,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
         <v>225</v>
       </c>
@@ -37485,7 +37485,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
         <v>225</v>
       </c>
@@ -37493,7 +37493,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
         <v>225</v>
       </c>
@@ -37517,7 +37517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/SRS/requirements.xlsx
+++ b/SRS/requirements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20328" windowHeight="10872"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20325" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1701,141 +1701,141 @@
     </xf>
   </cellXfs>
   <cellStyles count="135">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="134" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1848,9 +1848,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1888,7 +1888,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1960,7 +1960,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2136,38 +2136,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E143" workbookViewId="0">
-      <selection activeCell="N155" sqref="N155"/>
+    <sheetView tabSelected="1" topLeftCell="F167" workbookViewId="0">
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="19.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="1.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.44140625" customWidth="1"/>
-    <col min="11" max="11" width="1.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="48.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="72.44140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="80.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="19" max="19" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="19.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.42578125" customWidth="1"/>
+    <col min="11" max="11" width="1.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="48.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="72.42578125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="16" max="16" width="80.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="1"/>
+    <col min="19" max="19" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P1" s="6" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2472,14 +2472,14 @@
         <v>194</v>
       </c>
       <c r="H7" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" ref="J7" si="1">CONCATENATE("ID.",H7)</f>
-        <v>ID.50</v>
+        <v>ID.51</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>3</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>16</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>16</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>16</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>16</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>16</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>16</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>16</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>16</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>16</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>16</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>16</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>16</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>16</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>16</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>16</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>16</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>16</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>16</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>16</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>16</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>16</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>16</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>16</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>16</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>16</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>16</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>16</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>16</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>16</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>16</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>16</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>16</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>16</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>16</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>16</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>16</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>16</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>16</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>16</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>16</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>16</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>16</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>16</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>16</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>16</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>16</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>16</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>16</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="216" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>16</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>16</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>16</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>16</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>16</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>16</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>16</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>16</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>16</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>16</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>16</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>16</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>16</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>16</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>16</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>16</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>16</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>16</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>16</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>16</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>16</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>16</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>16</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>16</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>16</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>16</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>16</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>16</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>16</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>16</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>16</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>16</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>16</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>16</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>16</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>16</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>16</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>16</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>16</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>16</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>16</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>16</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>16</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>16</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>16</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>16</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>16</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>16</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>16</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>16</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>16</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>16</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>16</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>16</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>16</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>16</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>16</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>16</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>16</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>16</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>16</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>16</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>16</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>16</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>16</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>16</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>16</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>16</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>16</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>16</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>16</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>16</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>16</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>16</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>16</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>16</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>16</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>16</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>16</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>16</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>16</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>16</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>16</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>16</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>16</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>16</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>16</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>16</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>16</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>16</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>16</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>16</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>16</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>16</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>16</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>16</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>16</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>16</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>16</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>16</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>16</v>
       </c>
@@ -15517,7 +15517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>16</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>16</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>16</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>16</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>16</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>16</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>16</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>16</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>16</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>16</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>16</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>16</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>16</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>16</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>16</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>16</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>16</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>16</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>16</v>
       </c>
@@ -16297,7 +16297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>16</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>16</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>16</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>16</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>16</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>16</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>16</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>16</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>16</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>16</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>16</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>16</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>16</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>16</v>
       </c>
@@ -16843,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>16</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>16</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>16</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>16</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>16</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>16</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>16</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>16</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>16</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>16</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>16</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>16</v>
       </c>
@@ -17311,7 +17311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>16</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>16</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>16</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>16</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>16</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>16</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>16</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>16</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>16</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>16</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>16</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>16</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>16</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>16</v>
       </c>
@@ -17857,7 +17857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>16</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>16</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>16</v>
       </c>
@@ -17974,7 +17974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>16</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>16</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>16</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>16</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>16</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>16</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>16</v>
       </c>
@@ -18247,7 +18247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>16</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>16</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>16</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>16</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>16</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>16</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>16</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>16</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>16</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>16</v>
       </c>
@@ -18637,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>16</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>16</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>16</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>16</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>16</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>16</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>16</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>16</v>
       </c>
@@ -18949,7 +18949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>16</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>16</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>16</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>16</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>16</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>16</v>
       </c>
@@ -19183,7 +19183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>16</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>16</v>
       </c>
@@ -19261,7 +19261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>16</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>16</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>16</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>16</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>16</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>16</v>
       </c>
@@ -19495,7 +19495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>16</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>16</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>16</v>
       </c>
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>16</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>16</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>16</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>16</v>
       </c>
@@ -19768,7 +19768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>16</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>16</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>16</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>16</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>16</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>16</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>16</v>
       </c>
@@ -20041,7 +20041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>16</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>16</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>16</v>
       </c>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>16</v>
       </c>
@@ -20197,7 +20197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>16</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>16</v>
       </c>
@@ -20275,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>16</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>16</v>
       </c>
@@ -20353,7 +20353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>16</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>16</v>
       </c>
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>16</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>16</v>
       </c>
@@ -20509,7 +20509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>16</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>16</v>
       </c>
@@ -20587,7 +20587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>16</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>16</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>16</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>16</v>
       </c>
@@ -20743,7 +20743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>16</v>
       </c>
@@ -20782,7 +20782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>16</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>16</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>16</v>
       </c>
@@ -20899,7 +20899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>16</v>
       </c>
@@ -20938,7 +20938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>16</v>
       </c>
@@ -20977,7 +20977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>16</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>16</v>
       </c>
@@ -21055,7 +21055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>16</v>
       </c>
@@ -21094,7 +21094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>16</v>
       </c>
@@ -21133,7 +21133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>16</v>
       </c>
@@ -21172,7 +21172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>16</v>
       </c>
@@ -21211,7 +21211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>16</v>
       </c>
@@ -21250,7 +21250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>16</v>
       </c>
@@ -21289,7 +21289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>16</v>
       </c>
@@ -21328,7 +21328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>16</v>
       </c>
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>16</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>16</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>16</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>16</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>16</v>
       </c>
@@ -21562,7 +21562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>16</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>16</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>16</v>
       </c>
@@ -21679,7 +21679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>16</v>
       </c>
@@ -21718,7 +21718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>16</v>
       </c>
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>16</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>16</v>
       </c>
@@ -21835,7 +21835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>16</v>
       </c>
@@ -21874,7 +21874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>16</v>
       </c>
@@ -21913,7 +21913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>16</v>
       </c>
@@ -21952,7 +21952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>16</v>
       </c>
@@ -21991,7 +21991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>16</v>
       </c>
@@ -22030,7 +22030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>16</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>16</v>
       </c>
@@ -22108,7 +22108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>16</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>16</v>
       </c>
@@ -22186,7 +22186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>16</v>
       </c>
@@ -22225,7 +22225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>16</v>
       </c>
@@ -22264,7 +22264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>16</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>16</v>
       </c>
@@ -22342,7 +22342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>16</v>
       </c>
@@ -22381,7 +22381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>16</v>
       </c>
@@ -22420,7 +22420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>16</v>
       </c>
@@ -22459,7 +22459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>16</v>
       </c>
@@ -22498,7 +22498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>16</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>16</v>
       </c>
@@ -22576,7 +22576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>16</v>
       </c>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>16</v>
       </c>
@@ -22654,7 +22654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>16</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>16</v>
       </c>
@@ -22732,7 +22732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>16</v>
       </c>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>16</v>
       </c>
@@ -22810,7 +22810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>16</v>
       </c>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>16</v>
       </c>
@@ -22888,7 +22888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>16</v>
       </c>
@@ -22927,7 +22927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>16</v>
       </c>
@@ -22966,7 +22966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>16</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>16</v>
       </c>
@@ -23044,7 +23044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>16</v>
       </c>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>16</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>16</v>
       </c>
@@ -23161,7 +23161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>16</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>16</v>
       </c>
@@ -23239,7 +23239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>16</v>
       </c>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>16</v>
       </c>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>16</v>
       </c>
@@ -23356,7 +23356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>16</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>16</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>16</v>
       </c>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>16</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>16</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>16</v>
       </c>
@@ -23590,7 +23590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>16</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>16</v>
       </c>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>16</v>
       </c>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>16</v>
       </c>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>16</v>
       </c>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>16</v>
       </c>
@@ -23824,7 +23824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>16</v>
       </c>
@@ -23863,7 +23863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>16</v>
       </c>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>16</v>
       </c>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>16</v>
       </c>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>16</v>
       </c>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>16</v>
       </c>
@@ -24058,7 +24058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>16</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>16</v>
       </c>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>16</v>
       </c>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>16</v>
       </c>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>16</v>
       </c>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>16</v>
       </c>
@@ -24292,7 +24292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>16</v>
       </c>
@@ -24331,7 +24331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>16</v>
       </c>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>16</v>
       </c>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>16</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>16</v>
       </c>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>16</v>
       </c>
@@ -24526,7 +24526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>16</v>
       </c>
@@ -24565,7 +24565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>16</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>16</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>16</v>
       </c>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>16</v>
       </c>
@@ -24721,7 +24721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>16</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>16</v>
       </c>
@@ -24799,7 +24799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>16</v>
       </c>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>16</v>
       </c>
@@ -24877,7 +24877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>16</v>
       </c>
@@ -24916,7 +24916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>16</v>
       </c>
@@ -24955,7 +24955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>16</v>
       </c>
@@ -24994,7 +24994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>16</v>
       </c>
@@ -25033,7 +25033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>16</v>
       </c>
@@ -25072,7 +25072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>16</v>
       </c>
@@ -25111,7 +25111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>16</v>
       </c>
@@ -25150,7 +25150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>16</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>16</v>
       </c>
@@ -25228,7 +25228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>16</v>
       </c>
@@ -25267,7 +25267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>16</v>
       </c>
@@ -25306,7 +25306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>16</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>16</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>16</v>
       </c>
@@ -25423,7 +25423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>16</v>
       </c>
@@ -25462,7 +25462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>16</v>
       </c>
@@ -25501,7 +25501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>16</v>
       </c>
@@ -25540,7 +25540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>16</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>16</v>
       </c>
@@ -25618,7 +25618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>16</v>
       </c>
@@ -25657,7 +25657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>16</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>16</v>
       </c>
@@ -25735,7 +25735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>16</v>
       </c>
@@ -25774,7 +25774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>16</v>
       </c>
@@ -25813,7 +25813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>16</v>
       </c>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>16</v>
       </c>
@@ -25891,7 +25891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>16</v>
       </c>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>16</v>
       </c>
@@ -25969,7 +25969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>16</v>
       </c>
@@ -26008,7 +26008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>16</v>
       </c>
@@ -26047,7 +26047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>16</v>
       </c>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>16</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>16</v>
       </c>
@@ -26164,7 +26164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>16</v>
       </c>
@@ -26203,7 +26203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>16</v>
       </c>
@@ -26242,7 +26242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>16</v>
       </c>
@@ -26281,7 +26281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>16</v>
       </c>
@@ -26320,7 +26320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>16</v>
       </c>
@@ -26359,7 +26359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>16</v>
       </c>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>16</v>
       </c>
@@ -26437,7 +26437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>16</v>
       </c>
@@ -26476,7 +26476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>16</v>
       </c>
@@ -26515,7 +26515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>16</v>
       </c>
@@ -26554,7 +26554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>16</v>
       </c>
@@ -26593,7 +26593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>16</v>
       </c>
@@ -26632,7 +26632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>16</v>
       </c>
@@ -26671,7 +26671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>16</v>
       </c>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>16</v>
       </c>
@@ -26749,7 +26749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>16</v>
       </c>
@@ -26788,7 +26788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>16</v>
       </c>
@@ -26827,7 +26827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>16</v>
       </c>
@@ -26866,7 +26866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>16</v>
       </c>
@@ -26905,7 +26905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>16</v>
       </c>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>16</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>16</v>
       </c>
@@ -27022,7 +27022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>16</v>
       </c>
@@ -27061,7 +27061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>16</v>
       </c>
@@ -27100,7 +27100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>16</v>
       </c>
@@ -27139,7 +27139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>16</v>
       </c>
@@ -27178,7 +27178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>16</v>
       </c>
@@ -27217,7 +27217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>16</v>
       </c>
@@ -27256,7 +27256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>16</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>16</v>
       </c>
@@ -27334,7 +27334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>16</v>
       </c>
@@ -27373,7 +27373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>16</v>
       </c>
@@ -27412,7 +27412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>16</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>16</v>
       </c>
@@ -27490,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>16</v>
       </c>
@@ -27529,7 +27529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>16</v>
       </c>
@@ -27568,7 +27568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>16</v>
       </c>
@@ -27607,7 +27607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>16</v>
       </c>
@@ -27646,7 +27646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>16</v>
       </c>
@@ -27685,7 +27685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>16</v>
       </c>
@@ -27724,7 +27724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>16</v>
       </c>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>16</v>
       </c>
@@ -27802,7 +27802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>16</v>
       </c>
@@ -27841,7 +27841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>16</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>16</v>
       </c>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>16</v>
       </c>
@@ -27958,7 +27958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>16</v>
       </c>
@@ -27997,7 +27997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>16</v>
       </c>
@@ -28036,7 +28036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>16</v>
       </c>
@@ -28075,7 +28075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>16</v>
       </c>
@@ -28114,7 +28114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>16</v>
       </c>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>16</v>
       </c>
@@ -28192,7 +28192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>16</v>
       </c>
@@ -28231,7 +28231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>16</v>
       </c>
@@ -28270,7 +28270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>16</v>
       </c>
@@ -28309,7 +28309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>16</v>
       </c>
@@ -28348,7 +28348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>16</v>
       </c>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>16</v>
       </c>
@@ -28426,7 +28426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>16</v>
       </c>
@@ -28465,7 +28465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>16</v>
       </c>
@@ -28504,7 +28504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>16</v>
       </c>
@@ -28543,7 +28543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>16</v>
       </c>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>16</v>
       </c>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>16</v>
       </c>
@@ -28660,7 +28660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>16</v>
       </c>
@@ -28699,7 +28699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>16</v>
       </c>
@@ -28738,7 +28738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>16</v>
       </c>
@@ -28777,7 +28777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>16</v>
       </c>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>16</v>
       </c>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>16</v>
       </c>
@@ -28894,7 +28894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>16</v>
       </c>
@@ -28933,7 +28933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>16</v>
       </c>
@@ -28972,7 +28972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>16</v>
       </c>
@@ -29011,7 +29011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>16</v>
       </c>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>16</v>
       </c>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>16</v>
       </c>
@@ -29128,7 +29128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>16</v>
       </c>
@@ -29167,7 +29167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>16</v>
       </c>
@@ -29206,7 +29206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>16</v>
       </c>
@@ -29245,7 +29245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>16</v>
       </c>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>16</v>
       </c>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>16</v>
       </c>
@@ -29362,7 +29362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>16</v>
       </c>
@@ -29401,7 +29401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>16</v>
       </c>
@@ -29440,7 +29440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>16</v>
       </c>
@@ -29479,7 +29479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>16</v>
       </c>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>16</v>
       </c>
@@ -29557,7 +29557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>16</v>
       </c>
@@ -29596,7 +29596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>16</v>
       </c>
@@ -29635,7 +29635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>16</v>
       </c>
@@ -29674,7 +29674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>16</v>
       </c>
@@ -29713,7 +29713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>16</v>
       </c>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>16</v>
       </c>
@@ -29791,7 +29791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>16</v>
       </c>
@@ -29830,7 +29830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>16</v>
       </c>
@@ -29869,7 +29869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>16</v>
       </c>
@@ -29908,7 +29908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>16</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>16</v>
       </c>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>16</v>
       </c>
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>16</v>
       </c>
@@ -30064,7 +30064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>16</v>
       </c>
@@ -30103,7 +30103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>16</v>
       </c>
@@ -30142,7 +30142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>16</v>
       </c>
@@ -30181,7 +30181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>16</v>
       </c>
@@ -30220,7 +30220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>16</v>
       </c>
@@ -30259,7 +30259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>16</v>
       </c>
@@ -30298,7 +30298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>16</v>
       </c>
@@ -30337,7 +30337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>16</v>
       </c>
@@ -30376,7 +30376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>16</v>
       </c>
@@ -30415,7 +30415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>16</v>
       </c>
@@ -30454,7 +30454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>16</v>
       </c>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>16</v>
       </c>
@@ -30532,7 +30532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>16</v>
       </c>
@@ -30571,7 +30571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>16</v>
       </c>
@@ -30610,7 +30610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>16</v>
       </c>
@@ -30649,7 +30649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>16</v>
       </c>
@@ -30688,7 +30688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>16</v>
       </c>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>16</v>
       </c>
@@ -30766,7 +30766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>16</v>
       </c>
@@ -30805,7 +30805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>16</v>
       </c>
@@ -30844,7 +30844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>16</v>
       </c>
@@ -30883,7 +30883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>16</v>
       </c>
@@ -30922,7 +30922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>16</v>
       </c>
@@ -30961,7 +30961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>16</v>
       </c>
@@ -31000,7 +31000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>16</v>
       </c>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>16</v>
       </c>
@@ -31078,7 +31078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>16</v>
       </c>
@@ -31117,7 +31117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>16</v>
       </c>
@@ -31156,7 +31156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>16</v>
       </c>
@@ -31195,7 +31195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>16</v>
       </c>
@@ -31234,7 +31234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>16</v>
       </c>
@@ -31273,7 +31273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>16</v>
       </c>
@@ -31312,7 +31312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>16</v>
       </c>
@@ -31351,7 +31351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>16</v>
       </c>
@@ -31390,7 +31390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>16</v>
       </c>
@@ -31429,7 +31429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>16</v>
       </c>
@@ -31468,7 +31468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>16</v>
       </c>
@@ -31507,7 +31507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>16</v>
       </c>
@@ -31546,7 +31546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>16</v>
       </c>
@@ -31585,7 +31585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>16</v>
       </c>
@@ -31624,7 +31624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>16</v>
       </c>
@@ -31663,7 +31663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>16</v>
       </c>
@@ -31702,7 +31702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>16</v>
       </c>
@@ -31741,7 +31741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>16</v>
       </c>
@@ -31780,7 +31780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>16</v>
       </c>
@@ -31819,7 +31819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>16</v>
       </c>
@@ -31858,7 +31858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>16</v>
       </c>
@@ -31897,7 +31897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>16</v>
       </c>
@@ -31936,7 +31936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>16</v>
       </c>
@@ -31975,7 +31975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>16</v>
       </c>
@@ -32014,7 +32014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>16</v>
       </c>
@@ -32053,7 +32053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>16</v>
       </c>
@@ -32092,7 +32092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>16</v>
       </c>
@@ -32131,7 +32131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>16</v>
       </c>
@@ -32170,7 +32170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>16</v>
       </c>
@@ -32209,7 +32209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>16</v>
       </c>
@@ -32248,7 +32248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>16</v>
       </c>
@@ -32287,7 +32287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>16</v>
       </c>
@@ -32326,7 +32326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>16</v>
       </c>
@@ -32365,7 +32365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>16</v>
       </c>
@@ -32404,7 +32404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>16</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>16</v>
       </c>
@@ -32482,7 +32482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>16</v>
       </c>
@@ -32521,7 +32521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>16</v>
       </c>
@@ -32560,7 +32560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>16</v>
       </c>
@@ -32599,7 +32599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>16</v>
       </c>
@@ -32638,7 +32638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>16</v>
       </c>
@@ -32677,7 +32677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>16</v>
       </c>
@@ -32716,7 +32716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>16</v>
       </c>
@@ -32755,7 +32755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>16</v>
       </c>
@@ -32794,7 +32794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>16</v>
       </c>
@@ -32833,7 +32833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>16</v>
       </c>
@@ -32872,7 +32872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>16</v>
       </c>
@@ -32911,7 +32911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>16</v>
       </c>
@@ -32950,7 +32950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>16</v>
       </c>
@@ -32989,7 +32989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>16</v>
       </c>
@@ -33028,7 +33028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>16</v>
       </c>
@@ -33067,7 +33067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>16</v>
       </c>
@@ -33106,7 +33106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>16</v>
       </c>
@@ -33145,7 +33145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>16</v>
       </c>
@@ -33184,7 +33184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>16</v>
       </c>
@@ -33223,7 +33223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>16</v>
       </c>
@@ -33262,7 +33262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>16</v>
       </c>
@@ -33301,7 +33301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>16</v>
       </c>
@@ -33340,7 +33340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>16</v>
       </c>
@@ -33379,7 +33379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>16</v>
       </c>
@@ -33418,7 +33418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>16</v>
       </c>
@@ -33457,7 +33457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>16</v>
       </c>
@@ -33496,7 +33496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>16</v>
       </c>
@@ -33535,7 +33535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>16</v>
       </c>
@@ -33574,7 +33574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>16</v>
       </c>
@@ -33613,7 +33613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>16</v>
       </c>
@@ -33652,7 +33652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>16</v>
       </c>
@@ -33691,7 +33691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>16</v>
       </c>
@@ -33730,7 +33730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>16</v>
       </c>
@@ -33769,7 +33769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>16</v>
       </c>
@@ -33808,7 +33808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>16</v>
       </c>
@@ -33847,7 +33847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>16</v>
       </c>
@@ -33886,7 +33886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>16</v>
       </c>
@@ -33925,7 +33925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>16</v>
       </c>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>16</v>
       </c>
@@ -34003,7 +34003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>16</v>
       </c>
@@ -34042,7 +34042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>16</v>
       </c>
@@ -34081,7 +34081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>16</v>
       </c>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>16</v>
       </c>
@@ -34159,7 +34159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>16</v>
       </c>
@@ -34198,7 +34198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>16</v>
       </c>
@@ -34237,7 +34237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>16</v>
       </c>
@@ -34276,7 +34276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>16</v>
       </c>
@@ -34315,7 +34315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>16</v>
       </c>
@@ -34354,7 +34354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>16</v>
       </c>
@@ -34393,7 +34393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>16</v>
       </c>
@@ -34432,7 +34432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>16</v>
       </c>
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>16</v>
       </c>
@@ -34510,7 +34510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>16</v>
       </c>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>16</v>
       </c>
@@ -34588,7 +34588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>16</v>
       </c>
@@ -34627,7 +34627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>16</v>
       </c>
@@ -34666,7 +34666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>16</v>
       </c>
@@ -34705,7 +34705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>16</v>
       </c>
@@ -34744,7 +34744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>16</v>
       </c>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>16</v>
       </c>
@@ -34822,7 +34822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>16</v>
       </c>
@@ -34861,7 +34861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>16</v>
       </c>
@@ -34900,7 +34900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>16</v>
       </c>
@@ -34939,7 +34939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>16</v>
       </c>
@@ -34978,7 +34978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>16</v>
       </c>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>16</v>
       </c>
@@ -35056,7 +35056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>16</v>
       </c>
@@ -35095,7 +35095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>16</v>
       </c>
@@ -35134,7 +35134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>16</v>
       </c>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>16</v>
       </c>
@@ -35212,7 +35212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>16</v>
       </c>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>16</v>
       </c>
@@ -35290,7 +35290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>16</v>
       </c>
@@ -35329,7 +35329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>16</v>
       </c>
@@ -35368,7 +35368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>16</v>
       </c>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>16</v>
       </c>
@@ -35446,7 +35446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>16</v>
       </c>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>16</v>
       </c>
@@ -35524,7 +35524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>16</v>
       </c>
@@ -35563,7 +35563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>16</v>
       </c>
@@ -35602,7 +35602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>16</v>
       </c>
@@ -35641,7 +35641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>16</v>
       </c>
@@ -35680,7 +35680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
         <v>16</v>
       </c>
@@ -35719,7 +35719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>16</v>
       </c>
@@ -35758,7 +35758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>16</v>
       </c>
@@ -35797,7 +35797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>16</v>
       </c>
@@ -35836,7 +35836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>16</v>
       </c>
@@ -35875,7 +35875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>16</v>
       </c>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
         <v>16</v>
       </c>
@@ -35953,7 +35953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>16</v>
       </c>
@@ -35992,7 +35992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
         <v>16</v>
       </c>
@@ -36031,7 +36031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>16</v>
       </c>
@@ -36070,7 +36070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
         <v>16</v>
       </c>
@@ -36109,7 +36109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>16</v>
       </c>
@@ -36148,7 +36148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
         <v>16</v>
       </c>
@@ -36187,7 +36187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>16</v>
       </c>
@@ -36226,7 +36226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
         <v>16</v>
       </c>
@@ -36265,7 +36265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>16</v>
       </c>
@@ -36304,7 +36304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
         <v>16</v>
       </c>
@@ -36343,7 +36343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
         <v>16</v>
       </c>
@@ -36382,7 +36382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
         <v>16</v>
       </c>
@@ -36421,7 +36421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>16</v>
       </c>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
         <v>16</v>
       </c>
@@ -36499,7 +36499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
         <v>16</v>
       </c>
@@ -36538,7 +36538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
         <v>16</v>
       </c>
@@ -36577,7 +36577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
         <v>16</v>
       </c>
@@ -36616,7 +36616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
         <v>16</v>
       </c>
@@ -36655,7 +36655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
         <v>16</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
         <v>16</v>
       </c>
@@ -36733,7 +36733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
         <v>16</v>
       </c>
@@ -36772,7 +36772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
         <v>16</v>
       </c>
@@ -36811,7 +36811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
         <v>16</v>
       </c>
@@ -36850,7 +36850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
         <v>16</v>
       </c>
@@ -36889,7 +36889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
         <v>16</v>
       </c>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
         <v>16</v>
       </c>
@@ -36967,7 +36967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
         <v>16</v>
       </c>
@@ -37006,7 +37006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
         <v>16</v>
       </c>
@@ -37045,7 +37045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>16</v>
       </c>
@@ -37084,7 +37084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
         <v>16</v>
       </c>
@@ -37123,7 +37123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
         <v>16</v>
       </c>
@@ -37162,7 +37162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>16</v>
       </c>
@@ -37201,7 +37201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
         <v>16</v>
       </c>
@@ -37240,7 +37240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
         <v>16</v>
       </c>
@@ -37279,7 +37279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
         <v>16</v>
       </c>
@@ -37344,14 +37344,14 @@
       <selection activeCell="XFD1" sqref="XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>225</v>
       </c>
@@ -37359,7 +37359,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>225</v>
       </c>
@@ -37367,7 +37367,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>225</v>
       </c>
@@ -37375,7 +37375,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>225</v>
       </c>
@@ -37383,7 +37383,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>225</v>
       </c>
@@ -37391,7 +37391,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>225</v>
       </c>
@@ -37399,7 +37399,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>225</v>
       </c>
@@ -37407,7 +37407,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>225</v>
       </c>
@@ -37415,7 +37415,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>225</v>
       </c>
@@ -37423,7 +37423,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>225</v>
       </c>
@@ -37431,7 +37431,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>225</v>
       </c>
@@ -37439,37 +37439,37 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>225</v>
       </c>
@@ -37477,7 +37477,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>225</v>
       </c>
@@ -37485,7 +37485,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>225</v>
       </c>
@@ -37493,7 +37493,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>225</v>
       </c>
@@ -37517,7 +37517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/SRS/requirements.xlsx
+++ b/SRS/requirements.xlsx
@@ -629,9 +629,6 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>Товар имеет статус к публикации (check/approved/unapproved)</t>
-  </si>
-  <si>
     <t>Несколько цен</t>
   </si>
   <si>
@@ -1455,6 +1452,9 @@
   </si>
   <si>
     <t>Направление обмена данными по складам из SAP PI в SAP hybris.  Ключевое поле - идентификатор склада  (строка), прочие поля - наименование (строка), активность (флаг), время отгрузки (строка), приоритет (число), страна (строка), регион (строка), индекс (строка), город (строка), адрес (строка)</t>
+  </si>
+  <si>
+    <t>Товар имеет статус к публикации (проверено/утверждено/не утверждено)</t>
   </si>
 </sst>
 </file>
@@ -2136,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F167" workbookViewId="0">
-      <selection activeCell="F174" sqref="F174"/>
+    <sheetView tabSelected="1" topLeftCell="E75" workbookViewId="0">
+      <selection activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,7 +2164,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P1" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>12</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>2</v>
@@ -2332,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>2</v>
@@ -2503,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>0</v>
@@ -2548,19 +2548,19 @@
         <v>12</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>403</v>
-      </c>
       <c r="Q8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>12</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>405</v>
-      </c>
       <c r="Q9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="R20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="R21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>0</v>
@@ -3361,13 +3361,13 @@
         <v>2</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>194</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>1</v>
@@ -3415,19 +3415,19 @@
         <v>12</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>2</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>194</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>1</v>
@@ -3535,25 +3535,25 @@
         <v>12</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3601,13 +3601,13 @@
         <v>2</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>194</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>1</v>
@@ -3655,19 +3655,19 @@
         <v>12</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>2</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>194</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>1</v>
@@ -3775,19 +3775,19 @@
         <v>12</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>0</v>
@@ -3841,13 +3841,13 @@
         <v>2</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>194</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>1</v>
@@ -3895,19 +3895,19 @@
         <v>12</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>0</v>
@@ -3949,25 +3949,25 @@
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" t="s">
         <v>452</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" t="s">
-        <v>453</v>
-      </c>
       <c r="O32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>2</v>
       </c>
       <c r="R33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>0</v>
@@ -4075,19 +4075,19 @@
         <v>12</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>30</v>
@@ -4144,7 +4144,7 @@
         <v>2</v>
       </c>
       <c r="R35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>0</v>
@@ -4198,13 +4198,13 @@
         <v>2</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>0</v>
@@ -4233,7 +4233,7 @@
         <v>194</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>1</v>
@@ -4252,19 +4252,19 @@
         <v>12</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>0</v>
@@ -4324,7 +4324,7 @@
         <v>2</v>
       </c>
       <c r="R38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>0</v>
@@ -4366,25 +4366,25 @@
         <v>3</v>
       </c>
       <c r="L39" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P39" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>451</v>
-      </c>
       <c r="Q39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>0</v>
@@ -4444,7 +4444,7 @@
         <v>2</v>
       </c>
       <c r="R40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>2</v>
       </c>
       <c r="R41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>0</v>
@@ -4564,7 +4564,7 @@
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>2</v>
       </c>
       <c r="R43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>2</v>
       </c>
       <c r="R45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>0</v>
@@ -4786,25 +4786,25 @@
         <v>3</v>
       </c>
       <c r="L46" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N46" s="4" t="s">
+      <c r="O46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P46" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>426</v>
-      </c>
       <c r="Q46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>0</v>
@@ -4858,13 +4858,13 @@
         <v>2</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>194</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>1</v>
@@ -4912,19 +4912,19 @@
         <v>12</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>0</v>
@@ -4984,7 +4984,7 @@
         <v>2</v>
       </c>
       <c r="R49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>0</v>
@@ -5026,13 +5026,13 @@
         <v>3</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>2</v>
@@ -5044,7 +5044,7 @@
         <v>2</v>
       </c>
       <c r="R50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>0</v>
@@ -5164,7 +5164,7 @@
         <v>2</v>
       </c>
       <c r="R52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>2</v>
       </c>
       <c r="R53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>2</v>
       </c>
       <c r="R54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>0</v>
@@ -5344,7 +5344,7 @@
         <v>2</v>
       </c>
       <c r="R55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>0</v>
@@ -5404,7 +5404,7 @@
         <v>2</v>
       </c>
       <c r="R56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>2</v>
       </c>
       <c r="R57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>2</v>
       </c>
       <c r="R58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S58" s="1" t="s">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>2</v>
       </c>
       <c r="R59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>0</v>
@@ -5638,13 +5638,13 @@
         <v>2</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>194</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>1</v>
@@ -5692,19 +5692,19 @@
         <v>12</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>0</v>
@@ -5758,13 +5758,13 @@
         <v>2</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>0</v>
@@ -5793,7 +5793,7 @@
         <v>194</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>1</v>
@@ -5812,19 +5812,19 @@
         <v>12</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>0</v>
@@ -5878,13 +5878,13 @@
         <v>2</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q64" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>194</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>1</v>
@@ -5932,19 +5932,19 @@
         <v>12</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>0</v>
@@ -5998,13 +5998,13 @@
         <v>2</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>194</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>1</v>
@@ -6052,19 +6052,19 @@
         <v>12</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>0</v>
@@ -6124,7 +6124,7 @@
         <v>2</v>
       </c>
       <c r="R68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="R69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S69" s="1" t="s">
         <v>0</v>
@@ -6238,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="R70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>0</v>
@@ -6295,7 +6295,7 @@
         <v>2</v>
       </c>
       <c r="R71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>2</v>
       </c>
       <c r="R72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>0</v>
@@ -6409,7 +6409,7 @@
         <v>2</v>
       </c>
       <c r="R73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S73" s="1" t="s">
         <v>0</v>
@@ -6466,7 +6466,7 @@
         <v>2</v>
       </c>
       <c r="R74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S74" s="1" t="s">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>2</v>
       </c>
       <c r="R75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S75" s="1" t="s">
         <v>0</v>
@@ -6580,7 +6580,7 @@
         <v>2</v>
       </c>
       <c r="R76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S76" s="1" t="s">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>2</v>
       </c>
       <c r="R77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S77" s="1" t="s">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>2</v>
       </c>
       <c r="R78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S78" s="1" t="s">
         <v>0</v>
@@ -6751,7 +6751,7 @@
         <v>2</v>
       </c>
       <c r="R79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S79" s="1" t="s">
         <v>0</v>
@@ -6808,7 +6808,7 @@
         <v>2</v>
       </c>
       <c r="R80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S80" s="1" t="s">
         <v>0</v>
@@ -6865,7 +6865,7 @@
         <v>2</v>
       </c>
       <c r="R81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S81" s="1" t="s">
         <v>0</v>
@@ -6922,7 +6922,7 @@
         <v>2</v>
       </c>
       <c r="R82" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S82" s="1" t="s">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>2</v>
       </c>
       <c r="R83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S83" s="1" t="s">
         <v>0</v>
@@ -7042,7 +7042,7 @@
         <v>2</v>
       </c>
       <c r="R84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S84" s="1" t="s">
         <v>0</v>
@@ -7090,7 +7090,7 @@
         <v>12</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O85" s="1" t="s">
         <v>2</v>
@@ -7102,7 +7102,7 @@
         <v>2</v>
       </c>
       <c r="R85" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S85" s="1" t="s">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>12</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O86" s="1" t="s">
         <v>2</v>
@@ -7162,7 +7162,7 @@
         <v>2</v>
       </c>
       <c r="R86" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S86" s="1" t="s">
         <v>0</v>
@@ -7222,7 +7222,7 @@
         <v>2</v>
       </c>
       <c r="R87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S87" s="1" t="s">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>12</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>201</v>
+        <v>476</v>
       </c>
       <c r="O88" s="1" t="s">
         <v>2</v>
@@ -7282,7 +7282,7 @@
         <v>2</v>
       </c>
       <c r="R88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S88" s="1" t="s">
         <v>0</v>
@@ -7324,13 +7324,13 @@
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N89" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="O89" s="1" t="s">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>2</v>
       </c>
       <c r="R89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S89" s="1" t="s">
         <v>0</v>
@@ -7384,13 +7384,13 @@
         <v>3</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O90" s="1" t="s">
         <v>2</v>
@@ -7402,7 +7402,7 @@
         <v>2</v>
       </c>
       <c r="R90" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S90" s="1" t="s">
         <v>0</v>
@@ -7444,13 +7444,13 @@
         <v>3</v>
       </c>
       <c r="L91" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N91" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N91" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="O91" s="1" t="s">
         <v>2</v>
@@ -7462,7 +7462,7 @@
         <v>2</v>
       </c>
       <c r="R91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S91" s="1" t="s">
         <v>0</v>
@@ -7510,7 +7510,7 @@
         <v>12</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O92" s="1" t="s">
         <v>2</v>
@@ -7522,7 +7522,7 @@
         <v>2</v>
       </c>
       <c r="R92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S92" s="1" t="s">
         <v>0</v>
@@ -7564,25 +7564,25 @@
         <v>3</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O93" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q93" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S93" s="1" t="s">
         <v>0</v>
@@ -7624,13 +7624,13 @@
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N94" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N94" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="O94" s="1" t="s">
         <v>2</v>
@@ -7642,7 +7642,7 @@
         <v>2</v>
       </c>
       <c r="R94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S94" s="1" t="s">
         <v>0</v>
@@ -7684,13 +7684,13 @@
         <v>3</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>2</v>
@@ -7702,7 +7702,7 @@
         <v>2</v>
       </c>
       <c r="R95" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S95" s="1" t="s">
         <v>0</v>
@@ -7744,13 +7744,13 @@
         <v>3</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O96" s="1" t="s">
         <v>2</v>
@@ -7762,7 +7762,7 @@
         <v>2</v>
       </c>
       <c r="R96" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S96" s="1" t="s">
         <v>0</v>
@@ -7804,13 +7804,13 @@
         <v>3</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O97" s="1" t="s">
         <v>2</v>
@@ -7822,7 +7822,7 @@
         <v>2</v>
       </c>
       <c r="R97" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S97" s="1" t="s">
         <v>0</v>
@@ -7864,13 +7864,13 @@
         <v>3</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N98" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O98" s="1" t="s">
         <v>2</v>
@@ -7882,7 +7882,7 @@
         <v>2</v>
       </c>
       <c r="R98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S98" s="1" t="s">
         <v>0</v>
@@ -7924,13 +7924,13 @@
         <v>3</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O99" s="1" t="s">
         <v>2</v>
@@ -7942,7 +7942,7 @@
         <v>2</v>
       </c>
       <c r="R99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S99" s="1" t="s">
         <v>0</v>
@@ -7984,13 +7984,13 @@
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O100" s="1" t="s">
         <v>2</v>
@@ -8002,7 +8002,7 @@
         <v>2</v>
       </c>
       <c r="R100" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S100" s="1" t="s">
         <v>0</v>
@@ -8044,13 +8044,13 @@
         <v>3</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O101" s="1" t="s">
         <v>2</v>
@@ -8062,7 +8062,7 @@
         <v>2</v>
       </c>
       <c r="R101" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S101" s="1" t="s">
         <v>0</v>
@@ -8104,13 +8104,13 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O102" s="1" t="s">
         <v>2</v>
@@ -8122,7 +8122,7 @@
         <v>2</v>
       </c>
       <c r="R102" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S102" s="1" t="s">
         <v>0</v>
@@ -8170,7 +8170,7 @@
         <v>12</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O103" s="1" t="s">
         <v>2</v>
@@ -8182,7 +8182,7 @@
         <v>2</v>
       </c>
       <c r="R103" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S103" s="1" t="s">
         <v>0</v>
@@ -8224,13 +8224,13 @@
         <v>3</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>2</v>
@@ -8242,7 +8242,7 @@
         <v>2</v>
       </c>
       <c r="R104" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S104" s="1" t="s">
         <v>0</v>
@@ -8284,13 +8284,13 @@
         <v>3</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O105" s="1" t="s">
         <v>2</v>
@@ -8302,7 +8302,7 @@
         <v>2</v>
       </c>
       <c r="R105" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S105" s="1" t="s">
         <v>0</v>
@@ -8344,13 +8344,13 @@
         <v>3</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>2</v>
@@ -8362,7 +8362,7 @@
         <v>2</v>
       </c>
       <c r="R106" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S106" s="1" t="s">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>12</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>2</v>
@@ -8422,7 +8422,7 @@
         <v>2</v>
       </c>
       <c r="R107" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S107" s="1" t="s">
         <v>0</v>
@@ -8445,7 +8445,7 @@
         <v>30</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>194</v>
@@ -8464,13 +8464,13 @@
         <v>3</v>
       </c>
       <c r="L108" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N108" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N108" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="O108" s="1" t="s">
         <v>2</v>
@@ -8482,7 +8482,7 @@
         <v>2</v>
       </c>
       <c r="R108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S108" s="1" t="s">
         <v>0</v>
@@ -8505,7 +8505,7 @@
         <v>30</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>194</v>
@@ -8524,13 +8524,13 @@
         <v>3</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N109" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O109" s="1" t="s">
         <v>2</v>
@@ -8542,7 +8542,7 @@
         <v>2</v>
       </c>
       <c r="R109" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S109" s="1" t="s">
         <v>0</v>
@@ -8565,7 +8565,7 @@
         <v>30</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>194</v>
@@ -8584,13 +8584,13 @@
         <v>3</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O110" s="1" t="s">
         <v>2</v>
@@ -8602,7 +8602,7 @@
         <v>2</v>
       </c>
       <c r="R110" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S110" s="1" t="s">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>30</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>194</v>
@@ -8644,13 +8644,13 @@
         <v>3</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O111" s="1" t="s">
         <v>2</v>
@@ -8662,7 +8662,7 @@
         <v>2</v>
       </c>
       <c r="R111" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S111" s="1" t="s">
         <v>0</v>
@@ -8685,7 +8685,7 @@
         <v>30</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>194</v>
@@ -8704,13 +8704,13 @@
         <v>3</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>2</v>
@@ -8722,7 +8722,7 @@
         <v>2</v>
       </c>
       <c r="R112" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S112" s="1" t="s">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>30</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>194</v>
@@ -8764,13 +8764,13 @@
         <v>3</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O113" s="1" t="s">
         <v>2</v>
@@ -8782,7 +8782,7 @@
         <v>2</v>
       </c>
       <c r="R113" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S113" s="1" t="s">
         <v>0</v>
@@ -8805,7 +8805,7 @@
         <v>30</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>194</v>
@@ -8824,13 +8824,13 @@
         <v>3</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O114" s="1" t="s">
         <v>2</v>
@@ -8842,7 +8842,7 @@
         <v>2</v>
       </c>
       <c r="R114" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S114" s="1" t="s">
         <v>0</v>
@@ -8884,13 +8884,13 @@
         <v>3</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O115" s="1" t="s">
         <v>2</v>
@@ -8902,7 +8902,7 @@
         <v>2</v>
       </c>
       <c r="R115" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S115" s="1" t="s">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>3</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O116" s="1" t="s">
         <v>2</v>
@@ -8962,7 +8962,7 @@
         <v>2</v>
       </c>
       <c r="R116" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S116" s="1" t="s">
         <v>0</v>
@@ -9004,13 +9004,13 @@
         <v>3</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O117" s="1" t="s">
         <v>2</v>
@@ -9022,7 +9022,7 @@
         <v>2</v>
       </c>
       <c r="R117" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S117" s="1" t="s">
         <v>0</v>
@@ -9064,25 +9064,25 @@
         <v>3</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O118" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P118" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q118" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R118" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S118" s="1" t="s">
         <v>0</v>
@@ -9124,13 +9124,13 @@
         <v>3</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N119" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O119" s="1" t="s">
         <v>2</v>
@@ -9142,7 +9142,7 @@
         <v>2</v>
       </c>
       <c r="R119" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S119" s="1" t="s">
         <v>0</v>
@@ -9184,13 +9184,13 @@
         <v>3</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O120" s="1" t="s">
         <v>2</v>
@@ -9202,7 +9202,7 @@
         <v>2</v>
       </c>
       <c r="R120" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S120" s="1" t="s">
         <v>0</v>
@@ -9244,13 +9244,13 @@
         <v>3</v>
       </c>
       <c r="L121" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N121" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N121" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="O121" s="1" t="s">
         <v>2</v>
@@ -9262,7 +9262,7 @@
         <v>2</v>
       </c>
       <c r="R121" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S121" s="1" t="s">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>12</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O122" s="1" t="s">
         <v>2</v>
@@ -9322,7 +9322,7 @@
         <v>2</v>
       </c>
       <c r="R122" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S122" s="1" t="s">
         <v>0</v>
@@ -9382,7 +9382,7 @@
         <v>2</v>
       </c>
       <c r="R123" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S123" s="1" t="s">
         <v>0</v>
@@ -9442,7 +9442,7 @@
         <v>2</v>
       </c>
       <c r="R124" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S124" s="1" t="s">
         <v>0</v>
@@ -9484,13 +9484,13 @@
         <v>3</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N125" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O125" s="1" t="s">
         <v>2</v>
@@ -9502,7 +9502,7 @@
         <v>2</v>
       </c>
       <c r="R125" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S125" s="1" t="s">
         <v>0</v>
@@ -9544,13 +9544,13 @@
         <v>3</v>
       </c>
       <c r="L126" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N126" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N126" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="O126" s="1" t="s">
         <v>2</v>
@@ -9562,7 +9562,7 @@
         <v>2</v>
       </c>
       <c r="R126" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S126" s="1" t="s">
         <v>0</v>
@@ -9604,13 +9604,13 @@
         <v>3</v>
       </c>
       <c r="L127" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N127" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N127" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="O127" s="1" t="s">
         <v>2</v>
@@ -9622,7 +9622,7 @@
         <v>2</v>
       </c>
       <c r="R127" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S127" s="1" t="s">
         <v>0</v>
@@ -9633,7 +9633,7 @@
         <v>16</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>17</v>
@@ -9673,13 +9673,13 @@
         <v>2</v>
       </c>
       <c r="P128" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q128" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R128" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S128" s="1" t="s">
         <v>0</v>
@@ -9690,7 +9690,7 @@
         <v>16</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>17</v>
@@ -9724,19 +9724,19 @@
         <v>12</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P129" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q129" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R129" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S129" s="1" t="s">
         <v>0</v>
@@ -9747,13 +9747,13 @@
         <v>16</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>30</v>
@@ -9775,25 +9775,25 @@
         <v>3</v>
       </c>
       <c r="L130" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N130" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="M130" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N130" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="O130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P130" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R130" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S130" s="1" t="s">
         <v>0</v>
@@ -9804,13 +9804,13 @@
         <v>16</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>30</v>
@@ -9832,25 +9832,25 @@
         <v>3</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N131" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O131" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P131" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q131" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R131" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S131" s="1" t="s">
         <v>0</v>
@@ -9861,13 +9861,13 @@
         <v>16</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>30</v>
@@ -9895,19 +9895,19 @@
         <v>12</v>
       </c>
       <c r="N132" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P132" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="O132" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P132" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="Q132" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R132" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S132" s="1" t="s">
         <v>0</v>
@@ -9918,13 +9918,13 @@
         <v>16</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>30</v>
@@ -9952,19 +9952,19 @@
         <v>12</v>
       </c>
       <c r="N133" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O133" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q133" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R133" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S133" s="1" t="s">
         <v>0</v>
@@ -9975,13 +9975,13 @@
         <v>16</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>30</v>
@@ -10015,13 +10015,13 @@
         <v>2</v>
       </c>
       <c r="P134" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q134" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R134" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S134" s="1" t="s">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>16</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>30</v>
@@ -10069,7 +10069,7 @@
         <v>12</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O135" s="1" t="s">
         <v>2</v>
@@ -10081,7 +10081,7 @@
         <v>2</v>
       </c>
       <c r="R135" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S135" s="1" t="s">
         <v>0</v>
@@ -10092,19 +10092,19 @@
         <v>16</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>194</v>
@@ -10129,19 +10129,19 @@
         <v>12</v>
       </c>
       <c r="N136" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O136" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P136" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q136" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R136" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S136" s="1" t="s">
         <v>0</v>
@@ -10152,19 +10152,19 @@
         <v>16</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>194</v>
@@ -10189,19 +10189,19 @@
         <v>12</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O137" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P137" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q137" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R137" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S137" s="1" t="s">
         <v>0</v>
@@ -10212,19 +10212,19 @@
         <v>16</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>194</v>
@@ -10249,19 +10249,19 @@
         <v>12</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O138" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P138" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q138" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S138" s="1" t="s">
         <v>0</v>
@@ -10272,19 +10272,19 @@
         <v>16</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>194</v>
@@ -10309,7 +10309,7 @@
         <v>12</v>
       </c>
       <c r="N139" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O139" s="1" t="s">
         <v>2</v>
@@ -10321,7 +10321,7 @@
         <v>2</v>
       </c>
       <c r="R139" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S139" s="1" t="s">
         <v>0</v>
@@ -10332,19 +10332,19 @@
         <v>16</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>194</v>
@@ -10369,7 +10369,7 @@
         <v>12</v>
       </c>
       <c r="N140" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O140" s="1" t="s">
         <v>2</v>
@@ -10381,7 +10381,7 @@
         <v>2</v>
       </c>
       <c r="R140" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S140" s="1" t="s">
         <v>0</v>
@@ -10392,19 +10392,19 @@
         <v>16</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>194</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="R141" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S141" s="1" t="s">
         <v>0</v>
@@ -10452,19 +10452,19 @@
         <v>16</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>194</v>
@@ -10489,7 +10489,7 @@
         <v>12</v>
       </c>
       <c r="N142" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O142" s="1" t="s">
         <v>2</v>
@@ -10501,7 +10501,7 @@
         <v>2</v>
       </c>
       <c r="R142" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S142" s="1" t="s">
         <v>0</v>
@@ -10512,19 +10512,19 @@
         <v>16</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>194</v>
@@ -10561,7 +10561,7 @@
         <v>2</v>
       </c>
       <c r="R143" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S143" s="1" t="s">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>16</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>194</v>
@@ -10621,7 +10621,7 @@
         <v>2</v>
       </c>
       <c r="R144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S144" s="1" t="s">
         <v>0</v>
@@ -10632,19 +10632,19 @@
         <v>16</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>194</v>
@@ -10681,7 +10681,7 @@
         <v>2</v>
       </c>
       <c r="R145" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S145" s="1" t="s">
         <v>0</v>
@@ -10692,19 +10692,19 @@
         <v>16</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>194</v>
@@ -10741,7 +10741,7 @@
         <v>2</v>
       </c>
       <c r="R146" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S146" s="1" t="s">
         <v>0</v>
@@ -10752,19 +10752,19 @@
         <v>16</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>194</v>
@@ -10801,7 +10801,7 @@
         <v>2</v>
       </c>
       <c r="R147" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S147" s="1" t="s">
         <v>0</v>
@@ -10812,19 +10812,19 @@
         <v>16</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>194</v>
@@ -10861,7 +10861,7 @@
         <v>2</v>
       </c>
       <c r="R148" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S148" s="1" t="s">
         <v>0</v>
@@ -10872,13 +10872,13 @@
         <v>16</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>30</v>
@@ -10909,19 +10909,19 @@
         <v>12</v>
       </c>
       <c r="N149" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O149" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P149" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q149" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R149" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S149" s="1" t="s">
         <v>0</v>
@@ -10932,19 +10932,19 @@
         <v>16</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>194</v>
@@ -10969,19 +10969,19 @@
         <v>12</v>
       </c>
       <c r="N150" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O150" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P150" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q150" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R150" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S150" s="1" t="s">
         <v>0</v>
@@ -10992,19 +10992,19 @@
         <v>16</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>194</v>
@@ -11023,13 +11023,13 @@
         <v>3</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N151" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O151" s="1" t="s">
         <v>2</v>
@@ -11041,7 +11041,7 @@
         <v>2</v>
       </c>
       <c r="R151" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S151" s="1" t="s">
         <v>0</v>
@@ -11052,7 +11052,7 @@
         <v>16</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>17</v>
@@ -11095,13 +11095,13 @@
         <v>2</v>
       </c>
       <c r="P152" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q152" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R152" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S152" s="1" t="s">
         <v>0</v>
@@ -11112,7 +11112,7 @@
         <v>16</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>17</v>
@@ -11149,19 +11149,19 @@
         <v>12</v>
       </c>
       <c r="N153" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O153" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P153" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q153" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R153" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S153" s="1" t="s">
         <v>0</v>
@@ -11172,7 +11172,7 @@
         <v>16</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>17</v>
@@ -11215,13 +11215,13 @@
         <v>2</v>
       </c>
       <c r="P154" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q154" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R154" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S154" s="1" t="s">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>16</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>17</v>
@@ -11275,13 +11275,13 @@
         <v>2</v>
       </c>
       <c r="P155" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q155" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R155" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S155" s="1" t="s">
         <v>0</v>
@@ -11292,7 +11292,7 @@
         <v>16</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>17</v>
@@ -11329,19 +11329,19 @@
         <v>12</v>
       </c>
       <c r="N156" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O156" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P156" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q156" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R156" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S156" s="1" t="s">
         <v>0</v>
@@ -11352,7 +11352,7 @@
         <v>16</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>17</v>
@@ -11389,19 +11389,19 @@
         <v>12</v>
       </c>
       <c r="N157" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O157" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P157" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q157" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R157" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S157" s="1" t="s">
         <v>0</v>
@@ -11412,7 +11412,7 @@
         <v>16</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>17</v>
@@ -11449,19 +11449,19 @@
         <v>12</v>
       </c>
       <c r="N158" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O158" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P158" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q158" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R158" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S158" s="1" t="s">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>16</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>17</v>
@@ -11515,13 +11515,13 @@
         <v>2</v>
       </c>
       <c r="P159" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q159" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R159" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S159" s="1" t="s">
         <v>0</v>
@@ -11532,7 +11532,7 @@
         <v>16</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>17</v>
@@ -11569,19 +11569,19 @@
         <v>12</v>
       </c>
       <c r="N160" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O160" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q160" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R160" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S160" s="1" t="s">
         <v>0</v>
@@ -11592,7 +11592,7 @@
         <v>16</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>17</v>
@@ -11629,19 +11629,19 @@
         <v>12</v>
       </c>
       <c r="N161" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O161" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P161" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q161" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R161" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S161" s="1" t="s">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>16</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>17</v>
@@ -11701,7 +11701,7 @@
         <v>2</v>
       </c>
       <c r="R162" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S162" s="1" t="s">
         <v>0</v>
@@ -11712,7 +11712,7 @@
         <v>16</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>17</v>
@@ -11761,7 +11761,7 @@
         <v>2</v>
       </c>
       <c r="R163" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S163" s="1" t="s">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>16</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>17</v>
@@ -11821,7 +11821,7 @@
         <v>2</v>
       </c>
       <c r="R164" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S164" s="1" t="s">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>30</v>
@@ -11860,25 +11860,25 @@
         <v>3</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N165" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O165" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P165" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q165" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R165" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S165" s="1" t="s">
         <v>0</v>
@@ -11895,7 +11895,7 @@
         <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>30</v>
@@ -11917,25 +11917,25 @@
         <v>3</v>
       </c>
       <c r="L166" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N166" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P166" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R166" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="M166" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N166" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="O166" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P166" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q166" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R166" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="S166" s="1" t="s">
         <v>0</v>
@@ -11952,7 +11952,7 @@
         <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>30</v>
@@ -11974,25 +11974,25 @@
         <v>3</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N167" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P167" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R167" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S167" s="1" t="s">
         <v>0</v>
@@ -12009,7 +12009,7 @@
         <v>17</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>30</v>
@@ -12031,25 +12031,25 @@
         <v>3</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N168" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O168" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P168" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q168" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R168" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S168" s="1" t="s">
         <v>0</v>
@@ -12066,7 +12066,7 @@
         <v>17</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>30</v>
@@ -12088,25 +12088,25 @@
         <v>3</v>
       </c>
       <c r="L169" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N169" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P169" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="M169" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N169" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O169" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P169" s="6" t="s">
-        <v>278</v>
-      </c>
       <c r="Q169" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R169" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S169" s="1" t="s">
         <v>0</v>
@@ -12123,7 +12123,7 @@
         <v>17</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>30</v>
@@ -12145,25 +12145,25 @@
         <v>3</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N170" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O170" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P170" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q170" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R170" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S170" s="1" t="s">
         <v>0</v>
@@ -12180,7 +12180,7 @@
         <v>17</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>30</v>
@@ -12202,25 +12202,25 @@
         <v>3</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M171" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N171" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O171" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P171" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q171" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R171" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S171" s="1" t="s">
         <v>0</v>
@@ -12237,7 +12237,7 @@
         <v>17</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>30</v>
@@ -12259,25 +12259,25 @@
         <v>3</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N172" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P172" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q172" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R172" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S172" s="1" t="s">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>30</v>
@@ -12316,25 +12316,25 @@
         <v>3</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M173" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N173" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P173" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q173" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R173" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S173" s="1" t="s">
         <v>0</v>
@@ -12351,7 +12351,7 @@
         <v>17</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>30</v>
@@ -12376,25 +12376,25 @@
         <v>3</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N174" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P174" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q174" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R174" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S174" s="1" t="s">
         <v>0</v>
@@ -12411,7 +12411,7 @@
         <v>17</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>30</v>
@@ -12436,25 +12436,25 @@
         <v>3</v>
       </c>
       <c r="L175" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N175" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="M175" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N175" s="4" t="s">
+      <c r="O175" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P175" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="O175" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P175" s="6" t="s">
-        <v>400</v>
-      </c>
       <c r="Q175" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R175" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S175" s="1" t="s">
         <v>0</v>
@@ -12471,7 +12471,7 @@
         <v>17</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>30</v>
@@ -12499,19 +12499,19 @@
         <v>12</v>
       </c>
       <c r="N176" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P176" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q176" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R176" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S176" s="1" t="s">
         <v>0</v>
@@ -12528,7 +12528,7 @@
         <v>17</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>30</v>
@@ -12540,7 +12540,7 @@
         <v>194</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>1</v>
@@ -12556,19 +12556,19 @@
         <v>12</v>
       </c>
       <c r="N177" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P177" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q177" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R177" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S177" s="1" t="s">
         <v>0</v>
@@ -12585,7 +12585,7 @@
         <v>17</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>30</v>
@@ -12610,25 +12610,25 @@
         <v>3</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N178" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P178" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q178" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R178" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S178" s="1" t="s">
         <v>0</v>
@@ -12645,7 +12645,7 @@
         <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>30</v>
@@ -12673,19 +12673,19 @@
         <v>12</v>
       </c>
       <c r="N179" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P179" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q179" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R179" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S179" s="1" t="s">
         <v>0</v>
@@ -12702,7 +12702,7 @@
         <v>17</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>30</v>
@@ -12727,25 +12727,25 @@
         <v>3</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N180" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P180" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q180" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R180" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S180" s="1" t="s">
         <v>0</v>
@@ -12762,7 +12762,7 @@
         <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>30</v>
@@ -12787,25 +12787,25 @@
         <v>3</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N181" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P181" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q181" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R181" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S181" s="1" t="s">
         <v>0</v>
@@ -12822,7 +12822,7 @@
         <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>30</v>
@@ -12834,7 +12834,7 @@
         <v>194</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>1</v>
@@ -12847,25 +12847,25 @@
         <v>3</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M182" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N182" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P182" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q182" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R182" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S182" s="1" t="s">
         <v>0</v>
@@ -12882,7 +12882,7 @@
         <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>30</v>
@@ -12907,25 +12907,25 @@
         <v>3</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N183" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P183" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q183" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R183" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S183" s="1" t="s">
         <v>0</v>
@@ -12942,7 +12942,7 @@
         <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>30</v>
@@ -12967,25 +12967,25 @@
         <v>3</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N184" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P184" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q184" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R184" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S184" s="1" t="s">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>30</v>
@@ -13027,13 +13027,13 @@
         <v>3</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N185" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>2</v>
@@ -13045,7 +13045,7 @@
         <v>2</v>
       </c>
       <c r="R185" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S185" s="1" t="s">
         <v>0</v>
@@ -13062,13 +13062,13 @@
         <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>194</v>
@@ -13087,25 +13087,25 @@
         <v>3</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N186" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P186" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q186" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R186" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S186" s="1" t="s">
         <v>0</v>
@@ -13122,13 +13122,13 @@
         <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>194</v>
@@ -13150,19 +13150,19 @@
         <v>12</v>
       </c>
       <c r="N187" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P187" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q187" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R187" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S187" s="1" t="s">
         <v>0</v>
@@ -13179,19 +13179,19 @@
         <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>194</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>1</v>
@@ -13207,19 +13207,19 @@
         <v>12</v>
       </c>
       <c r="N188" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P188" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q188" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R188" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S188" s="1" t="s">
         <v>0</v>
@@ -13236,13 +13236,13 @@
         <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>194</v>
@@ -13264,19 +13264,19 @@
         <v>12</v>
       </c>
       <c r="N189" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P189" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="O189" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P189" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="Q189" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R189" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S189" s="1" t="s">
         <v>0</v>
@@ -13293,13 +13293,13 @@
         <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>194</v>
@@ -13318,13 +13318,13 @@
         <v>3</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N190" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>2</v>
@@ -13336,7 +13336,7 @@
         <v>2</v>
       </c>
       <c r="R190" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S190" s="1" t="s">
         <v>0</v>
@@ -13353,13 +13353,13 @@
         <v>17</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>194</v>
@@ -13378,25 +13378,25 @@
         <v>3</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M191" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N191" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P191" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q191" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R191" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S191" s="1" t="s">
         <v>0</v>
@@ -13413,13 +13413,13 @@
         <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>194</v>
@@ -13441,19 +13441,19 @@
         <v>12</v>
       </c>
       <c r="N192" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P192" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q192" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R192" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S192" s="1" t="s">
         <v>0</v>
@@ -13470,13 +13470,13 @@
         <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>194</v>
@@ -13498,19 +13498,19 @@
         <v>12</v>
       </c>
       <c r="N193" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P193" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q193" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R193" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S193" s="1" t="s">
         <v>0</v>
@@ -13527,13 +13527,13 @@
         <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>194</v>
@@ -13555,19 +13555,19 @@
         <v>12</v>
       </c>
       <c r="N194" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P194" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q194" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R194" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S194" s="1" t="s">
         <v>0</v>
@@ -13584,7 +13584,7 @@
         <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>30</v>
@@ -13606,25 +13606,25 @@
         <v>3</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N195" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P195" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q195" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R195" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S195" s="1" t="s">
         <v>0</v>
@@ -13641,7 +13641,7 @@
         <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>30</v>
@@ -13663,25 +13663,25 @@
         <v>3</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N196" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P196" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="O196" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P196" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="Q196" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R196" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S196" s="1" t="s">
         <v>0</v>
@@ -13698,7 +13698,7 @@
         <v>17</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>30</v>
@@ -13720,25 +13720,25 @@
         <v>3</v>
       </c>
       <c r="L197" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N197" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="M197" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N197" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="O197" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P197" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q197" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R197" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S197" s="1" t="s">
         <v>0</v>
@@ -13749,19 +13749,19 @@
         <v>16</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="E198" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>194</v>
@@ -13780,25 +13780,25 @@
         <v>3</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M198" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N198" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P198" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q198" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R198" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S198" s="1" t="s">
         <v>0</v>
@@ -13809,25 +13809,25 @@
         <v>16</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="E199" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>194</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>1</v>
@@ -13840,25 +13840,25 @@
         <v>3</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N199" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P199" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q199" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R199" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S199" s="1" t="s">
         <v>0</v>
@@ -13869,13 +13869,13 @@
         <v>16</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>30</v>
@@ -13897,25 +13897,25 @@
         <v>3</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M200" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N200" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P200" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q200" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R200" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S200" s="1" t="s">
         <v>0</v>
@@ -13926,19 +13926,19 @@
         <v>16</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="E201" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>194</v>
@@ -13957,25 +13957,25 @@
         <v>3</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M201" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N201" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P201" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q201" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R201" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S201" s="1" t="s">
         <v>0</v>
@@ -13986,19 +13986,19 @@
         <v>16</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="E202" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>194</v>
@@ -14017,25 +14017,25 @@
         <v>3</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M202" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N202" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P202" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q202" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R202" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S202" s="1" t="s">
         <v>0</v>
@@ -14046,19 +14046,19 @@
         <v>16</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="E203" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>194</v>
@@ -14077,25 +14077,25 @@
         <v>3</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M203" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N203" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P203" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q203" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R203" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S203" s="1" t="s">
         <v>0</v>
@@ -14106,19 +14106,19 @@
         <v>16</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="E204" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>194</v>
@@ -14137,25 +14137,25 @@
         <v>3</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M204" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N204" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P204" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q204" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R204" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S204" s="1" t="s">
         <v>0</v>
@@ -14166,19 +14166,19 @@
         <v>16</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="E205" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>194</v>
@@ -14197,25 +14197,25 @@
         <v>3</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N205" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P205" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q205" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R205" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S205" s="1" t="s">
         <v>0</v>
@@ -14226,7 +14226,7 @@
         <v>16</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>17</v>
@@ -14254,7 +14254,7 @@
         <v>12</v>
       </c>
       <c r="N206" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>2</v>
@@ -14266,7 +14266,7 @@
         <v>2</v>
       </c>
       <c r="R206" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S206" s="1" t="s">
         <v>0</v>
@@ -14277,7 +14277,7 @@
         <v>16</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>17</v>
@@ -14302,13 +14302,13 @@
         <v>3</v>
       </c>
       <c r="L207" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N207" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="M207" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N207" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>2</v>
@@ -14320,7 +14320,7 @@
         <v>2</v>
       </c>
       <c r="R207" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S207" s="1" t="s">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>16</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>17</v>
@@ -14356,13 +14356,13 @@
         <v>3</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M208" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N208" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>2</v>
@@ -14374,7 +14374,7 @@
         <v>2</v>
       </c>
       <c r="R208" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S208" s="1" t="s">
         <v>0</v>
@@ -14385,7 +14385,7 @@
         <v>16</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>17</v>
@@ -14410,13 +14410,13 @@
         <v>3</v>
       </c>
       <c r="L209" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N209" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="M209" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N209" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>2</v>
@@ -14428,7 +14428,7 @@
         <v>2</v>
       </c>
       <c r="R209" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S209" s="1" t="s">
         <v>0</v>
@@ -14439,7 +14439,7 @@
         <v>16</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>17</v>
@@ -14464,13 +14464,13 @@
         <v>3</v>
       </c>
       <c r="L210" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N210" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="M210" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N210" s="4" t="s">
-        <v>385</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>2</v>
@@ -14482,7 +14482,7 @@
         <v>2</v>
       </c>
       <c r="R210" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S210" s="1" t="s">
         <v>0</v>
@@ -14493,7 +14493,7 @@
         <v>16</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>17</v>
@@ -14518,25 +14518,25 @@
         <v>3</v>
       </c>
       <c r="L211" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N211" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="M211" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N211" s="4" t="s">
+      <c r="O211" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P211" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="O211" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P211" s="6" t="s">
-        <v>388</v>
-      </c>
       <c r="Q211" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R211" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S211" s="1" t="s">
         <v>0</v>
@@ -37348,157 +37348,157 @@
   <sheetData>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" t="s">
         <v>225</v>
-      </c>
-      <c r="C11" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
